--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_22.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/60/Output_3_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1187113.793173268</v>
+        <v>1182809.12773028</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2160491.204006265</v>
+        <v>2160491.204006264</v>
       </c>
     </row>
     <row r="8">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7970459.945026992</v>
+        <v>7970459.94502699</v>
       </c>
     </row>
     <row r="11">
@@ -658,22 +658,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>273.3482111171954</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>218.5332794188663</v>
       </c>
       <c r="G2" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S2" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="3">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>100.3434053864687</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -870,16 +870,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>122.5446673791842</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -910,13 +910,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>35.74523592065157</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
         <v>164.8484195083599</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>233.3618613134482</v>
@@ -1113,10 +1113,10 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>53.03638470914571</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>113.1667354347865</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1135,22 +1135,22 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>412.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>381.888464129147</v>
       </c>
       <c r="H8" t="n">
-        <v>11.97291261316118</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -1180,25 +1180,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
         <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -1293,25 +1293,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>130.4178928586277</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>38.94107028328291</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1369,10 +1369,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C11" t="n">
-        <v>196.9725271050672</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D11" t="n">
         <v>381.5867174954989</v>
@@ -1387,10 +1387,10 @@
         <v>409.0311279568768</v>
       </c>
       <c r="H11" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>136.9537457384598</v>
+        <v>30.77710494364507</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,7 +1417,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
         <v>164.8484195083599</v>
@@ -1426,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -1438,7 +1438,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="12">
@@ -1548,10 +1548,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>22.96189723698664</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1575,22 +1575,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U13" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>389.2437464820987</v>
@@ -1615,16 +1615,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H14" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>33.87600228958222</v>
       </c>
       <c r="T14" t="n">
-        <v>169.5692511015497</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>253.1952022697474</v>
@@ -1669,7 +1669,7 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W14" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>385.5580790162737</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,22 +1812,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>43.93488307360163</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>233.3618613134482</v>
+        <v>66.03149870010068</v>
       </c>
       <c r="U16" t="n">
         <v>282.5844038405181</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>408.8313869843473</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>71.87332662396814</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>112.4426581424757</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>253.179222991945</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
         <v>385.5580790162737</v>
@@ -1940,10 +1940,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H18" t="n">
-        <v>86.38229489247486</v>
+        <v>86.38229489247487</v>
       </c>
       <c r="I18" t="n">
-        <v>45.21383710579052</v>
+        <v>45.21383710579059</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>17.04250582871801</v>
+        <v>17.04250582871812</v>
       </c>
       <c r="S18" t="n">
-        <v>131.5962913112781</v>
+        <v>131.5962913112782</v>
       </c>
       <c r="T18" t="n">
         <v>174.783209192548</v>
@@ -2052,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>199.2264929501066</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>230.2365156664307</v>
+        <v>197.7234896216894</v>
       </c>
       <c r="V19" t="n">
         <v>263.319551727384</v>
@@ -2067,7 +2067,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -2086,7 +2086,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D20" t="n">
-        <v>381.5867174954989</v>
+        <v>254.8751459116173</v>
       </c>
       <c r="E20" t="n">
         <v>398.5576896346209</v>
@@ -2101,7 +2101,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>118.7456644367293</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,13 +2128,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>25.06600571167716</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -2177,10 +2177,10 @@
         <v>118.7523489068069</v>
       </c>
       <c r="H21" t="n">
-        <v>86.38229489247486</v>
+        <v>86.38229489247487</v>
       </c>
       <c r="I21" t="n">
-        <v>45.21383710579053</v>
+        <v>45.21383710579058</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>17.04250582871803</v>
+        <v>17.04250582871812</v>
       </c>
       <c r="S21" t="n">
-        <v>131.5962913112781</v>
+        <v>131.5962913112782</v>
       </c>
       <c r="T21" t="n">
         <v>174.783209192548</v>
@@ -2238,7 +2238,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>146.8834918809608</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -2253,13 +2253,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4819164376007</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>126.8897776944399</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>129.0690572509242</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,22 +2286,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>118.6333759660428</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>199.2264929501066</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>232.9790380929424</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>282.5795167355755</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2332,7 +2332,7 @@
         <v>412.725494085322</v>
       </c>
       <c r="G23" t="n">
-        <v>222.2172295452418</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -2377,7 +2377,7 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>338.6857412035168</v>
+        <v>152.4706207287593</v>
       </c>
       <c r="W23" t="n">
         <v>367.2890446813954</v>
@@ -2417,7 +2417,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I24" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882079</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597817</v>
       </c>
       <c r="S24" t="n">
         <v>127.6305556124798</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -2523,28 +2523,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>76.1931125724297</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V25" t="n">
-        <v>218.3202641434165</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W25" t="n">
         <v>280.4970980481341</v>
       </c>
       <c r="X25" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2560,22 +2560,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D26" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F26" t="n">
-        <v>11.94721032648491</v>
+        <v>241.0804317442468</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>0</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2605,10 +2605,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>253.1473000347972</v>
@@ -2654,7 +2654,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I27" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882079</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597817</v>
       </c>
       <c r="S27" t="n">
         <v>127.6305556124798</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,25 +2763,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>196.1071114281788</v>
+        <v>156.8716112101081</v>
       </c>
       <c r="T28" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>148.1587432904752</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -2797,13 +2797,13 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D29" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>408.4323500200001</v>
@@ -2812,7 +2812,7 @@
         <v>314.7099853831353</v>
       </c>
       <c r="I29" t="n">
-        <v>113.8693593270195</v>
+        <v>68.94928205347011</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W29" t="n">
-        <v>91.1803206999984</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X29" t="n">
         <v>385.5580790162737</v>
@@ -2891,7 +2891,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I30" t="n">
-        <v>37.86294566882081</v>
+        <v>37.86294566882079</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597817</v>
       </c>
       <c r="S30" t="n">
         <v>127.6305556124798</v>
@@ -2955,22 +2955,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4184188525032</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F31" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>123.6862121416195</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3003,16 +3003,16 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>232.2142445012334</v>
+        <v>159.2108923592715</v>
       </c>
       <c r="U31" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -3031,10 +3031,10 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D32" t="n">
-        <v>269.905358119703</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E32" t="n">
         <v>398.5576896346209</v>
@@ -3043,13 +3043,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G32" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V32" t="n">
         <v>338.6857412035168</v>
@@ -3094,7 +3094,7 @@
         <v>367.2890446813954</v>
       </c>
       <c r="X32" t="n">
-        <v>385.5580790162737</v>
+        <v>240.7586491996989</v>
       </c>
       <c r="Y32" t="n">
         <v>392.5258019886049</v>
@@ -3237,10 +3237,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>112.3002456454842</v>
+        <v>76.66783807881613</v>
       </c>
       <c r="U34" t="n">
         <v>282.5697534131281</v>
@@ -3252,7 +3252,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -3271,22 +3271,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E35" t="n">
-        <v>363.5122727464508</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H35" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3322,13 +3322,13 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U35" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>367.2890446813954</v>
+        <v>149.9114521408725</v>
       </c>
       <c r="X35" t="n">
         <v>385.5580790162737</v>
@@ -3423,16 +3423,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3477,22 +3477,22 @@
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>176.2375134703701</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X37" t="n">
-        <v>231.7395189948467</v>
+        <v>185.5094402804239</v>
       </c>
       <c r="Y37" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3508,10 +3508,10 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F38" t="n">
         <v>412.725494085322</v>
@@ -3553,16 +3553,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>122.137540623065</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>253.1473000347972</v>
+        <v>152.4706207287584</v>
       </c>
       <c r="V38" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
         <v>367.2890446813954</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3684,7 +3684,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>11.08509183685201</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>110.585143828612</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.13876195709816</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U40" t="n">
         <v>282.5697534131281</v>
@@ -3723,10 +3723,10 @@
         <v>263.319551727384</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X40" t="n">
-        <v>231.7395189948467</v>
+        <v>76.19311257242943</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H41" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>33.27757184227629</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>338.6857412035168</v>
+        <v>152.4706207287588</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y41" t="n">
         <v>392.5258019886049</v>
@@ -3903,16 +3903,16 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>80.19023736720087</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,22 +3948,22 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T43" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>282.5697534131281</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>209.3168751801355</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X43" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -3976,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>389.2437464820987</v>
@@ -3994,7 +3994,7 @@
         <v>408.4323500200001</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,25 +4027,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V44" t="n">
-        <v>152.4706207287584</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W44" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X44" t="n">
-        <v>385.5580790162737</v>
+        <v>50.65306009718973</v>
       </c>
       <c r="Y44" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -4076,7 +4076,7 @@
         <v>84.320299612958</v>
       </c>
       <c r="I45" t="n">
-        <v>37.86294566882081</v>
+        <v>37.8629456688208</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>3.786554340597842</v>
+        <v>3.786554340597831</v>
       </c>
       <c r="S45" t="n">
         <v>127.6305556124798</v>
@@ -4134,7 +4134,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>76.1931125724297</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
@@ -4200,7 +4200,7 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>76.19311257242965</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4306,49 +4306,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1656.48203837997</v>
+        <v>1078.618840366324</v>
       </c>
       <c r="C2" t="n">
-        <v>1263.3065368829</v>
+        <v>685.4433388692541</v>
       </c>
       <c r="D2" t="n">
-        <v>877.8654080995678</v>
+        <v>685.4433388692541</v>
       </c>
       <c r="E2" t="n">
-        <v>475.2818832161124</v>
+        <v>282.8598139857987</v>
       </c>
       <c r="F2" t="n">
-        <v>475.2818832161124</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I2" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J2" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K2" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L2" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M2" t="n">
         <v>1605.072448403515</v>
       </c>
       <c r="N2" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O2" t="n">
         <v>2572.923332933306</v>
       </c>
       <c r="P2" t="n">
-        <v>2921.110825064827</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q2" t="n">
         <v>3105.956385205776</v>
@@ -4357,25 +4357,25 @@
         <v>3067.963471491298</v>
       </c>
       <c r="S2" t="n">
-        <v>2901.449916432348</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="T2" t="n">
-        <v>2901.449916432348</v>
+        <v>2844.462869050715</v>
       </c>
       <c r="U2" t="n">
-        <v>2645.697186866947</v>
+        <v>2588.710139485313</v>
       </c>
       <c r="V2" t="n">
-        <v>2303.590377570466</v>
+        <v>2246.603330188832</v>
       </c>
       <c r="W2" t="n">
-        <v>1932.591342538753</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="X2" t="n">
-        <v>1932.591342538753</v>
+        <v>1875.604295157119</v>
       </c>
       <c r="Y2" t="n">
-        <v>1932.591342538753</v>
+        <v>1479.113586077721</v>
       </c>
     </row>
     <row r="3">
@@ -4406,19 +4406,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I3" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J3" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K3" t="n">
-        <v>381.8582737663419</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L3" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M3" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N3" t="n">
         <v>1223.947919817482</v>
@@ -4464,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="C4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D4" t="n">
-        <v>862.2091751078208</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E4" t="n">
-        <v>706.6503629670233</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F4" t="n">
-        <v>549.3244281799962</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G4" t="n">
-        <v>381.0703742794417</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H4" t="n">
-        <v>225.5918232409357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I4" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J4" t="n">
-        <v>62.11912770411552</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K4" t="n">
         <v>143.9541688140574</v>
@@ -4518,22 +4518,22 @@
         <v>963.5661502456679</v>
       </c>
       <c r="T4" t="n">
-        <v>963.5661502456679</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U4" t="n">
-        <v>963.5661502456679</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V4" t="n">
-        <v>963.5661502456679</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="X4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="Y4" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>524.5392950451601</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="C5" t="n">
-        <v>524.5392950451601</v>
+        <v>923.1474259518279</v>
       </c>
       <c r="D5" t="n">
-        <v>524.5392950451601</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="E5" t="n">
-        <v>524.5392950451601</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="F5" t="n">
-        <v>524.5392950451601</v>
+        <v>799.3649336496217</v>
       </c>
       <c r="G5" t="n">
-        <v>524.5392950451601</v>
+        <v>386.2021781376249</v>
       </c>
       <c r="H5" t="n">
-        <v>200.4562446116507</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I5" t="n">
         <v>62.11912770411553</v>
@@ -4591,28 +4591,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R5" t="n">
-        <v>3069.850086296027</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S5" t="n">
-        <v>2903.336531237078</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T5" t="n">
-        <v>2679.835928796494</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U5" t="n">
-        <v>2424.083199231093</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V5" t="n">
-        <v>2081.976389934612</v>
+        <v>2080.089775129883</v>
       </c>
       <c r="W5" t="n">
-        <v>1710.977354902899</v>
+        <v>1709.09074009817</v>
       </c>
       <c r="X5" t="n">
-        <v>1321.524749835956</v>
+        <v>1319.638135031227</v>
       </c>
       <c r="Y5" t="n">
-        <v>925.034040756557</v>
+        <v>923.1474259518279</v>
       </c>
     </row>
     <row r="6">
@@ -4646,25 +4646,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J6" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K6" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L6" t="n">
-        <v>174.7633905351325</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M6" t="n">
-        <v>802.5350401618138</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N6" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O6" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P6" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q6" t="n">
         <v>2380.454662679751</v>
@@ -4749,19 +4749,19 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R7" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S7" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T7" t="n">
-        <v>401.1300252290284</v>
+        <v>727.847098413902</v>
       </c>
       <c r="U7" t="n">
-        <v>115.6912334709294</v>
+        <v>442.408306655803</v>
       </c>
       <c r="V7" t="n">
-        <v>62.11912770411553</v>
+        <v>176.4289614766272</v>
       </c>
       <c r="W7" t="n">
         <v>62.11912770411553</v>
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2085.470327974397</v>
+        <v>864.7594895369125</v>
       </c>
       <c r="C8" t="n">
-        <v>1692.294826477328</v>
+        <v>864.7594895369125</v>
       </c>
       <c r="D8" t="n">
-        <v>1306.853697693995</v>
+        <v>864.7594895369125</v>
       </c>
       <c r="E8" t="n">
-        <v>904.2701728105399</v>
+        <v>864.7594895369125</v>
       </c>
       <c r="F8" t="n">
-        <v>487.3757343405176</v>
+        <v>447.8650510668903</v>
       </c>
       <c r="G8" t="n">
-        <v>74.21297882852076</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H8" t="n">
         <v>62.11912770411553</v>
@@ -4828,28 +4828,28 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R8" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S8" t="n">
-        <v>3105.956385205776</v>
+        <v>2901.449916432349</v>
       </c>
       <c r="T8" t="n">
-        <v>2882.455782765193</v>
+        <v>2677.949313991765</v>
       </c>
       <c r="U8" t="n">
-        <v>2882.455782765193</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="V8" t="n">
-        <v>2882.455782765193</v>
+        <v>2422.196584426364</v>
       </c>
       <c r="W8" t="n">
-        <v>2882.455782765193</v>
+        <v>2051.197549394652</v>
       </c>
       <c r="X8" t="n">
-        <v>2882.455782765193</v>
+        <v>1661.744944327708</v>
       </c>
       <c r="Y8" t="n">
-        <v>2485.965073685794</v>
+        <v>1265.254235248309</v>
       </c>
     </row>
     <row r="9">
@@ -4883,22 +4883,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J9" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K9" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L9" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M9" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N9" t="n">
-        <v>1458.313011372373</v>
+        <v>1863.93438008877</v>
       </c>
       <c r="O9" t="n">
-        <v>1974.833293963354</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="P9" t="n">
         <v>2380.454662679751</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>963.5661502456679</v>
+        <v>232.3242456381263</v>
       </c>
       <c r="C10" t="n">
-        <v>963.5661502456679</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="D10" t="n">
-        <v>831.8309049339227</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="E10" t="n">
-        <v>676.2720927931252</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F10" t="n">
-        <v>518.9461580060981</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G10" t="n">
-        <v>350.6921041055436</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H10" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I10" t="n">
         <v>62.11912770411553</v>
@@ -4989,25 +4989,25 @@
         <v>963.5661502456679</v>
       </c>
       <c r="S10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="T10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="U10" t="n">
-        <v>963.5661502456679</v>
+        <v>760.7500664282172</v>
       </c>
       <c r="V10" t="n">
-        <v>963.5661502456679</v>
+        <v>494.7707212490415</v>
       </c>
       <c r="W10" t="n">
-        <v>963.5661502456679</v>
+        <v>455.436306821483</v>
       </c>
       <c r="X10" t="n">
-        <v>963.5661502456679</v>
+        <v>455.436306821483</v>
       </c>
       <c r="Y10" t="n">
-        <v>963.5661502456679</v>
+        <v>232.3242456381263</v>
       </c>
     </row>
     <row r="11">
@@ -5017,34 +5017,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2341.583291284944</v>
+        <v>2104.464461641553</v>
       </c>
       <c r="C11" t="n">
-        <v>2142.621142693967</v>
+        <v>1711.288960144483</v>
       </c>
       <c r="D11" t="n">
-        <v>1757.180013910635</v>
+        <v>1325.847831361151</v>
       </c>
       <c r="E11" t="n">
-        <v>1354.596489027179</v>
+        <v>923.2643064776953</v>
       </c>
       <c r="F11" t="n">
-        <v>937.702050557157</v>
+        <v>506.3698680076731</v>
       </c>
       <c r="G11" t="n">
-        <v>524.5392950451601</v>
+        <v>93.2071124956762</v>
       </c>
       <c r="H11" t="n">
-        <v>200.4562446116507</v>
+        <v>93.2071124956762</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.768900612944</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5059,34 +5059,34 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P11" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q11" t="n">
         <v>3105.956385205776</v>
       </c>
       <c r="R11" t="n">
-        <v>3105.956385205776</v>
+        <v>3067.963471491298</v>
       </c>
       <c r="S11" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="T11" t="n">
-        <v>2939.442830146827</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="U11" t="n">
-        <v>2683.690100581426</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="V11" t="n">
-        <v>2341.583291284944</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="W11" t="n">
-        <v>2341.583291284944</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="X11" t="n">
-        <v>2341.583291284944</v>
+        <v>2901.449916432348</v>
       </c>
       <c r="Y11" t="n">
-        <v>2341.583291284944</v>
+        <v>2504.959207352949</v>
       </c>
     </row>
     <row r="12">
@@ -5117,19 +5117,19 @@
         <v>111.5063816922039</v>
       </c>
       <c r="I12" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>545.6852136024288</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>568.1699486069232</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N12" t="n">
         <v>1223.947919817482</v>
@@ -5175,31 +5175,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I13" t="n">
-        <v>92.49739787801357</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="J13" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="K13" t="n">
         <v>143.9541688140574</v>
@@ -5223,28 +5223,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R13" t="n">
-        <v>839.6651608782449</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S13" t="n">
-        <v>636.8490770607943</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T13" t="n">
-        <v>401.1300252290284</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U13" t="n">
-        <v>115.6912334709294</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V13" t="n">
-        <v>115.6912334709294</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y13" t="n">
-        <v>115.6912334709294</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>779.3776796346942</v>
+        <v>1687.93534806666</v>
       </c>
       <c r="C14" t="n">
-        <v>386.2021781376249</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="D14" t="n">
-        <v>386.2021781376249</v>
+        <v>1294.75984656959</v>
       </c>
       <c r="E14" t="n">
-        <v>386.2021781376249</v>
+        <v>892.1763216861345</v>
       </c>
       <c r="F14" t="n">
-        <v>386.2021781376249</v>
+        <v>475.2818832161124</v>
       </c>
       <c r="G14" t="n">
-        <v>386.2021781376249</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H14" t="n">
         <v>62.11912770411552</v>
@@ -5278,7 +5278,7 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129435</v>
       </c>
       <c r="K14" t="n">
         <v>565.7512566404055</v>
@@ -5296,7 +5296,7 @@
         <v>2572.923332933306</v>
       </c>
       <c r="P14" t="n">
-        <v>2921.110825064828</v>
+        <v>2921.110825064827</v>
       </c>
       <c r="Q14" t="n">
         <v>3105.956385205776</v>
@@ -5305,25 +5305,25 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S14" t="n">
-        <v>3105.956385205776</v>
+        <v>3071.738201074885</v>
       </c>
       <c r="T14" t="n">
-        <v>2934.674313386029</v>
+        <v>3071.738201074885</v>
       </c>
       <c r="U14" t="n">
-        <v>2678.921583820627</v>
+        <v>2815.985471509483</v>
       </c>
       <c r="V14" t="n">
-        <v>2336.814774524146</v>
+        <v>2473.878662213002</v>
       </c>
       <c r="W14" t="n">
-        <v>1965.815739492433</v>
+        <v>2473.878662213002</v>
       </c>
       <c r="X14" t="n">
-        <v>1576.36313442549</v>
+        <v>2084.426057146059</v>
       </c>
       <c r="Y14" t="n">
-        <v>1179.872425346091</v>
+        <v>1687.93534806666</v>
       </c>
     </row>
     <row r="15">
@@ -5357,25 +5357,25 @@
         <v>62.11912770411552</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>96.81867335321709</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>580.3847592515303</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
-        <v>1208.156408878212</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N15" t="n">
-        <v>1863.93438008877</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>2380.454662679751</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="C16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="D16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="E16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="F16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="G16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="H16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411552</v>
@@ -5460,28 +5460,28 @@
         <v>963.5661502456679</v>
       </c>
       <c r="R16" t="n">
-        <v>919.1874804743532</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="S16" t="n">
-        <v>716.3713966569026</v>
+        <v>963.5661502456679</v>
       </c>
       <c r="T16" t="n">
-        <v>480.6523448251367</v>
+        <v>896.8676667102127</v>
       </c>
       <c r="U16" t="n">
-        <v>195.2135530670377</v>
+        <v>611.4288749521136</v>
       </c>
       <c r="V16" t="n">
-        <v>195.2135530670377</v>
+        <v>345.4495297729379</v>
       </c>
       <c r="W16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="X16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
       <c r="Y16" t="n">
-        <v>195.2135530670377</v>
+        <v>62.11912770411552</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>845.3532215103547</v>
+        <v>2150.391501639909</v>
       </c>
       <c r="C17" t="n">
-        <v>452.1777200132853</v>
+        <v>1757.216000142839</v>
       </c>
       <c r="D17" t="n">
-        <v>66.73659122995304</v>
+        <v>1371.774871359507</v>
       </c>
       <c r="E17" t="n">
-        <v>66.73659122995304</v>
+        <v>969.1913464760514</v>
       </c>
       <c r="F17" t="n">
-        <v>66.73659122995304</v>
+        <v>552.2969080060292</v>
       </c>
       <c r="G17" t="n">
-        <v>66.73659122995304</v>
+        <v>139.335911052143</v>
       </c>
       <c r="H17" t="n">
-        <v>66.73659122995304</v>
+        <v>139.335911052143</v>
       </c>
       <c r="I17" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J17" t="n">
-        <v>228.1696018523347</v>
+        <v>228.1696018523344</v>
       </c>
       <c r="K17" t="n">
-        <v>612.3056806068521</v>
+        <v>612.3056806068514</v>
       </c>
       <c r="L17" t="n">
-        <v>1136.831389612606</v>
+        <v>1136.831389612605</v>
       </c>
       <c r="M17" t="n">
-        <v>1717.554329029431</v>
+        <v>1717.554329029429</v>
       </c>
       <c r="N17" t="n">
-        <v>2280.649490936954</v>
+        <v>2280.649490936952</v>
       </c>
       <c r="O17" t="n">
-        <v>2754.00665754671</v>
+        <v>2754.006657546707</v>
       </c>
       <c r="P17" t="n">
-        <v>3130.62992118893</v>
+        <v>3130.629921188927</v>
       </c>
       <c r="Q17" t="n">
-        <v>3336.829561497652</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="R17" t="n">
-        <v>3336.829561497652</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="S17" t="n">
-        <v>3223.251118929495</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="T17" t="n">
-        <v>3000.63371457704</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="U17" t="n">
-        <v>2744.897125696288</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="V17" t="n">
-        <v>2402.790316399806</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="W17" t="n">
-        <v>2031.791281368094</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="X17" t="n">
-        <v>1642.33867630115</v>
+        <v>2947.376956430704</v>
       </c>
       <c r="Y17" t="n">
-        <v>1245.847967221752</v>
+        <v>2550.886247351305</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>1827.009748376221</v>
+        <v>861.235339493828</v>
       </c>
       <c r="C18" t="n">
-        <v>1676.355517936313</v>
+        <v>710.5811090539202</v>
       </c>
       <c r="D18" t="n">
-        <v>1546.266550557793</v>
+        <v>580.4921416754005</v>
       </c>
       <c r="E18" t="n">
-        <v>1409.820059668681</v>
+        <v>444.0456507862882</v>
       </c>
       <c r="F18" t="n">
-        <v>1285.388253551813</v>
+        <v>319.61384466942</v>
       </c>
       <c r="G18" t="n">
-        <v>1165.43638596918</v>
+        <v>199.6619770867867</v>
       </c>
       <c r="H18" t="n">
-        <v>1078.181542643447</v>
+        <v>112.4071337610546</v>
       </c>
       <c r="I18" t="n">
-        <v>1032.511000112346</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J18" t="n">
-        <v>1032.511000112346</v>
+        <v>189.8475548551839</v>
       </c>
       <c r="K18" t="n">
-        <v>1032.511000112346</v>
+        <v>526.6714252759092</v>
       </c>
       <c r="L18" t="n">
-        <v>1457.261419804481</v>
+        <v>1033.210031460163</v>
       </c>
       <c r="M18" t="n">
-        <v>2111.840917061075</v>
+        <v>1687.789528716757</v>
       </c>
       <c r="N18" t="n">
-        <v>2795.13625985907</v>
+        <v>1697.359575717139</v>
       </c>
       <c r="O18" t="n">
-        <v>3336.829561497652</v>
+        <v>1697.359575717139</v>
       </c>
       <c r="P18" t="n">
-        <v>3336.829561497652</v>
+        <v>2123.184511511797</v>
       </c>
       <c r="Q18" t="n">
-        <v>3336.829561497652</v>
+        <v>2371.055152615259</v>
       </c>
       <c r="R18" t="n">
-        <v>3319.614909145411</v>
+        <v>2353.840500263018</v>
       </c>
       <c r="S18" t="n">
-        <v>3186.689362366342</v>
+        <v>2220.914953483949</v>
       </c>
       <c r="T18" t="n">
-        <v>3010.140666212254</v>
+        <v>2044.36625732986</v>
       </c>
       <c r="U18" t="n">
-        <v>2800.08462488731</v>
+        <v>1834.310216004916</v>
       </c>
       <c r="V18" t="n">
-        <v>2577.544623258377</v>
+        <v>1611.770214375983</v>
       </c>
       <c r="W18" t="n">
-        <v>2347.427377391663</v>
+        <v>1381.65296850927</v>
       </c>
       <c r="X18" t="n">
-        <v>2158.120299741675</v>
+        <v>1192.345890859282</v>
       </c>
       <c r="Y18" t="n">
-        <v>1978.806082817182</v>
+        <v>1013.031673934789</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="C19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="D19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="E19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="F19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="G19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="K19" t="n">
-        <v>158.8770705324137</v>
+        <v>158.8770705324134</v>
       </c>
       <c r="L19" t="n">
-        <v>336.1921232544491</v>
+        <v>336.1921232544486</v>
       </c>
       <c r="M19" t="n">
-        <v>536.387979429458</v>
+        <v>536.3879794294573</v>
       </c>
       <c r="N19" t="n">
-        <v>733.1512786480434</v>
+        <v>733.1512786480425</v>
       </c>
       <c r="O19" t="n">
-        <v>908.3935224516671</v>
+        <v>908.3935224516661</v>
       </c>
       <c r="P19" t="n">
-        <v>1038.997665514104</v>
+        <v>1038.997665514103</v>
       </c>
       <c r="Q19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="R19" t="n">
-        <v>1049.847357282534</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="S19" t="n">
-        <v>848.6084755147499</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="T19" t="n">
-        <v>848.6084755147499</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="U19" t="n">
-        <v>616.0463384779512</v>
+        <v>850.126660694968</v>
       </c>
       <c r="V19" t="n">
-        <v>350.0669932987754</v>
+        <v>584.1473155157922</v>
       </c>
       <c r="W19" t="n">
-        <v>66.73659122995304</v>
+        <v>300.8169134469699</v>
       </c>
       <c r="X19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="Y19" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2197.737297410375</v>
+        <v>1949.800695369353</v>
       </c>
       <c r="C20" t="n">
-        <v>1804.561795913305</v>
+        <v>1556.625193872284</v>
       </c>
       <c r="D20" t="n">
-        <v>1419.120667129973</v>
+        <v>1299.175551537317</v>
       </c>
       <c r="E20" t="n">
-        <v>1016.537142246517</v>
+        <v>896.5920266538614</v>
       </c>
       <c r="F20" t="n">
-        <v>599.6427037764951</v>
+        <v>479.6975881838391</v>
       </c>
       <c r="G20" t="n">
-        <v>186.6817068226089</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H20" t="n">
-        <v>186.6817068226089</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I20" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J20" t="n">
-        <v>228.1696018523353</v>
+        <v>228.1696018523342</v>
       </c>
       <c r="K20" t="n">
-        <v>612.3056806068525</v>
+        <v>612.3056806068512</v>
       </c>
       <c r="L20" t="n">
-        <v>1136.831389612606</v>
+        <v>1136.831389612604</v>
       </c>
       <c r="M20" t="n">
-        <v>1717.554329029431</v>
+        <v>1717.554329029429</v>
       </c>
       <c r="N20" t="n">
-        <v>2280.649490936955</v>
+        <v>2280.649490936952</v>
       </c>
       <c r="O20" t="n">
-        <v>2754.006657546711</v>
+        <v>2754.006657546707</v>
       </c>
       <c r="P20" t="n">
-        <v>3130.629921188931</v>
+        <v>3130.629921188927</v>
       </c>
       <c r="Q20" t="n">
-        <v>3336.829561497652</v>
+        <v>3336.829561497648</v>
       </c>
       <c r="R20" t="n">
-        <v>3336.829561497652</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="S20" t="n">
-        <v>3336.829561497652</v>
+        <v>3311.510363809085</v>
       </c>
       <c r="T20" t="n">
-        <v>3336.829561497652</v>
+        <v>3088.892959456631</v>
       </c>
       <c r="U20" t="n">
-        <v>3336.829561497652</v>
+        <v>3088.892959456631</v>
       </c>
       <c r="V20" t="n">
-        <v>2994.72275220117</v>
+        <v>2746.786150160149</v>
       </c>
       <c r="W20" t="n">
-        <v>2994.72275220117</v>
+        <v>2746.786150160149</v>
       </c>
       <c r="X20" t="n">
-        <v>2994.72275220117</v>
+        <v>2746.786150160149</v>
       </c>
       <c r="Y20" t="n">
-        <v>2598.232043121771</v>
+        <v>2350.29544108075</v>
       </c>
     </row>
     <row r="21">
@@ -5828,28 +5828,28 @@
         <v>112.4071337610546</v>
       </c>
       <c r="I21" t="n">
-        <v>66.73659122995304</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J21" t="n">
-        <v>189.8475548551841</v>
+        <v>189.8475548551839</v>
       </c>
       <c r="K21" t="n">
-        <v>526.6714252759098</v>
+        <v>526.6714252759093</v>
       </c>
       <c r="L21" t="n">
-        <v>526.6714252759098</v>
+        <v>1033.210031460163</v>
       </c>
       <c r="M21" t="n">
-        <v>1181.250922532504</v>
+        <v>1033.210031460163</v>
       </c>
       <c r="N21" t="n">
-        <v>1181.250922532504</v>
+        <v>1155.666274078557</v>
       </c>
       <c r="O21" t="n">
         <v>1697.359575717138</v>
       </c>
       <c r="P21" t="n">
-        <v>2123.184511511796</v>
+        <v>2123.184511511797</v>
       </c>
       <c r="Q21" t="n">
         <v>2371.055152615259</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2780.426625124832</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="C22" t="n">
-        <v>2780.426625124832</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="D22" t="n">
-        <v>2780.426625124832</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="E22" t="n">
-        <v>2780.426625124832</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="F22" t="n">
-        <v>2780.426625124832</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="G22" t="n">
-        <v>2612.26307316766</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="H22" t="n">
-        <v>2484.091580547014</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="I22" t="n">
-        <v>2353.71879544507</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="J22" t="n">
-        <v>2353.71879544507</v>
+        <v>66.73659122995295</v>
       </c>
       <c r="K22" t="n">
-        <v>2445.859274747531</v>
+        <v>158.8770705324134</v>
       </c>
       <c r="L22" t="n">
-        <v>2623.174327469566</v>
+        <v>336.1921232544486</v>
       </c>
       <c r="M22" t="n">
-        <v>2823.370183644575</v>
+        <v>536.3879794294573</v>
       </c>
       <c r="N22" t="n">
-        <v>3020.133482863161</v>
+        <v>733.1512786480425</v>
       </c>
       <c r="O22" t="n">
-        <v>3195.375726666784</v>
+        <v>908.3935224516661</v>
       </c>
       <c r="P22" t="n">
-        <v>3325.979869729221</v>
+        <v>1038.997665514103</v>
       </c>
       <c r="Q22" t="n">
-        <v>3336.829561497652</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="R22" t="n">
-        <v>3216.997868602659</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="S22" t="n">
-        <v>3015.758986834875</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="T22" t="n">
-        <v>2780.426625124832</v>
+        <v>1049.847357282533</v>
       </c>
       <c r="U22" t="n">
-        <v>2780.426625124832</v>
+        <v>764.4135019940732</v>
       </c>
       <c r="V22" t="n">
-        <v>2780.426625124832</v>
+        <v>498.4341568148974</v>
       </c>
       <c r="W22" t="n">
-        <v>2780.426625124832</v>
+        <v>215.103754746075</v>
       </c>
       <c r="X22" t="n">
-        <v>2780.426625124832</v>
+        <v>215.103754746075</v>
       </c>
       <c r="Y22" t="n">
-        <v>2780.426625124832</v>
+        <v>215.103754746075</v>
       </c>
     </row>
     <row r="23">
@@ -5965,43 +5965,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.51767320724</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C23" t="n">
-        <v>1505.34217171017</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D23" t="n">
-        <v>1119.901042926838</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E23" t="n">
-        <v>717.3175180433825</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F23" t="n">
-        <v>300.4230795733603</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G23" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="H23" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="I23" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="J23" t="n">
-        <v>270.9233280874842</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K23" t="n">
-        <v>705.3108151130501</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L23" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M23" t="n">
-        <v>1942.26750440162</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N23" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O23" t="n">
         <v>3115.769891361771</v>
@@ -6010,31 +6010,31 @@
         <v>3549.201349130636</v>
       </c>
       <c r="Q23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="R23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="S23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="T23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="U23" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="V23" t="n">
-        <v>3455.954768096692</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W23" t="n">
-        <v>3084.955733064979</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X23" t="n">
-        <v>2695.503127998036</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y23" t="n">
-        <v>2299.012418918637</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="24">
@@ -6065,28 +6065,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I24" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="J24" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K24" t="n">
-        <v>75.96123154786346</v>
+        <v>589.9971470274371</v>
       </c>
       <c r="L24" t="n">
-        <v>313.8895596758445</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M24" t="n">
-        <v>1022.025029968184</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N24" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O24" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P24" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q24" t="n">
         <v>2352.277072610002</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="C25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="D25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="E25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="F25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="G25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="H25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="I25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="J25" t="n">
-        <v>2651.805253895891</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="K25" t="n">
-        <v>2764.533651243075</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L25" t="n">
-        <v>2968.19415089026</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M25" t="n">
-        <v>3196.167586943608</v>
+        <v>620.3235645955797</v>
       </c>
       <c r="N25" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289404</v>
       </c>
       <c r="O25" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P25" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q25" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R25" t="n">
-        <v>3798.061577393173</v>
+        <v>1145.254815072994</v>
       </c>
       <c r="S25" t="n">
-        <v>3798.061577393173</v>
+        <v>1145.254815072994</v>
       </c>
       <c r="T25" t="n">
-        <v>3798.061577393173</v>
+        <v>910.6949721424555</v>
       </c>
       <c r="U25" t="n">
-        <v>3798.061577393173</v>
+        <v>625.2709787958615</v>
       </c>
       <c r="V25" t="n">
-        <v>3577.536058056389</v>
+        <v>359.2916336166858</v>
       </c>
       <c r="W25" t="n">
-        <v>3294.205655987566</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="X25" t="n">
-        <v>3060.125333770549</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="Y25" t="n">
-        <v>2837.013272587193</v>
+        <v>75.96123154786348</v>
       </c>
     </row>
     <row r="26">
@@ -6202,34 +6202,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1269.229275930392</v>
+        <v>1642.813329737749</v>
       </c>
       <c r="C26" t="n">
-        <v>876.0537744333228</v>
+        <v>1249.637828240679</v>
       </c>
       <c r="D26" t="n">
-        <v>490.6126456499906</v>
+        <v>1249.637828240679</v>
       </c>
       <c r="E26" t="n">
-        <v>88.02912076653507</v>
+        <v>847.0543033572235</v>
       </c>
       <c r="F26" t="n">
-        <v>75.96123154786345</v>
+        <v>603.5387157367721</v>
       </c>
       <c r="G26" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H26" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I26" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="J26" t="n">
-        <v>270.9233280874835</v>
+        <v>270.9233280874837</v>
       </c>
       <c r="K26" t="n">
-        <v>705.3108151130498</v>
+        <v>705.3108151130496</v>
       </c>
       <c r="L26" t="n">
         <v>1292.177839612517</v>
@@ -6244,34 +6244,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P26" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="R26" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="S26" t="n">
-        <v>3645.330499340868</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="T26" t="n">
-        <v>3424.477523585818</v>
+        <v>3798.061577393174</v>
       </c>
       <c r="U26" t="n">
-        <v>3168.773180116325</v>
+        <v>3542.357233923682</v>
       </c>
       <c r="V26" t="n">
-        <v>2826.666370819844</v>
+        <v>3200.2504246272</v>
       </c>
       <c r="W26" t="n">
-        <v>2455.667335788131</v>
+        <v>2829.251389595488</v>
       </c>
       <c r="X26" t="n">
-        <v>2066.214730721188</v>
+        <v>2439.798784528544</v>
       </c>
       <c r="Y26" t="n">
-        <v>1669.724021641789</v>
+        <v>2043.308075449145</v>
       </c>
     </row>
     <row r="27">
@@ -6281,76 +6281,76 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>2306.52085801419</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C27" t="n">
-        <v>2155.866627574282</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D27" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E27" t="n">
-        <v>1889.33116930665</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F27" t="n">
-        <v>1764.899363189782</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G27" t="n">
-        <v>1645.163155807577</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H27" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I27" t="n">
-        <v>1521.745736331033</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="J27" t="n">
-        <v>1521.745736331033</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K27" t="n">
-        <v>1521.745736331033</v>
+        <v>589.9971470274371</v>
       </c>
       <c r="L27" t="n">
-        <v>2001.622474081669</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M27" t="n">
-        <v>2001.622474081669</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N27" t="n">
-        <v>2739.891257160895</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O27" t="n">
-        <v>3331.874516723487</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P27" t="n">
-        <v>3798.061577393172</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q27" t="n">
-        <v>3798.061577393172</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R27" t="n">
-        <v>3794.236775028932</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S27" t="n">
-        <v>3665.317021885013</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T27" t="n">
-        <v>3489.637587679142</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U27" t="n">
-        <v>3279.595734525279</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V27" t="n">
-        <v>3057.055732896346</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W27" t="n">
-        <v>2826.938487029633</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X27" t="n">
-        <v>2637.631409379644</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y27" t="n">
-        <v>2458.317192455151</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="28">
@@ -6360,43 +6360,43 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>231.5943446453487</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="C28" t="n">
-        <v>231.5943446453487</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="D28" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="E28" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="F28" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="G28" t="n">
-        <v>75.96123154786345</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="H28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="I28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="J28" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786348</v>
       </c>
       <c r="K28" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L28" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M28" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955797</v>
       </c>
       <c r="N28" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289404</v>
       </c>
       <c r="O28" t="n">
         <v>1044.49322140544</v>
@@ -6405,31 +6405,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R28" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S28" t="n">
-        <v>1024.129563703551</v>
+        <v>1063.761382105642</v>
       </c>
       <c r="T28" t="n">
-        <v>789.5697207730119</v>
+        <v>1063.761382105642</v>
       </c>
       <c r="U28" t="n">
-        <v>639.9144245200066</v>
+        <v>778.3373887590484</v>
       </c>
       <c r="V28" t="n">
-        <v>639.9144245200066</v>
+        <v>512.3580435798726</v>
       </c>
       <c r="W28" t="n">
-        <v>639.9144245200066</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="X28" t="n">
-        <v>639.9144245200066</v>
+        <v>229.0276415110503</v>
       </c>
       <c r="Y28" t="n">
-        <v>416.80236333665</v>
+        <v>229.0276415110503</v>
       </c>
     </row>
     <row r="29">
@@ -6439,76 +6439,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2519.522183495031</v>
+        <v>1269.229275930393</v>
       </c>
       <c r="C29" t="n">
-        <v>2126.346681997961</v>
+        <v>876.0537744333237</v>
       </c>
       <c r="D29" t="n">
-        <v>1740.905553214629</v>
+        <v>876.0537744333237</v>
       </c>
       <c r="E29" t="n">
-        <v>1338.322028331173</v>
+        <v>876.0537744333237</v>
       </c>
       <c r="F29" t="n">
-        <v>921.4275898611513</v>
+        <v>876.0537744333237</v>
       </c>
       <c r="G29" t="n">
-        <v>508.8696605480199</v>
+        <v>463.4958451201923</v>
       </c>
       <c r="H29" t="n">
-        <v>190.9807864236407</v>
+        <v>145.6069709958131</v>
       </c>
       <c r="I29" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J29" t="n">
-        <v>270.9233280874832</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K29" t="n">
-        <v>705.3108151130491</v>
+        <v>705.3108151130498</v>
       </c>
       <c r="L29" t="n">
         <v>1292.177839612517</v>
       </c>
       <c r="M29" t="n">
-        <v>1942.267504401618</v>
+        <v>1942.267504401619</v>
       </c>
       <c r="N29" t="n">
-        <v>2575.851817818621</v>
+        <v>2575.851817818622</v>
       </c>
       <c r="O29" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P29" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R29" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S29" t="n">
-        <v>3798.061577393172</v>
+        <v>3645.330499340869</v>
       </c>
       <c r="T29" t="n">
-        <v>3798.061577393172</v>
+        <v>3424.477523585819</v>
       </c>
       <c r="U29" t="n">
-        <v>3798.061577393172</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V29" t="n">
-        <v>3798.061577393172</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W29" t="n">
-        <v>3705.96024335277</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X29" t="n">
-        <v>3316.507638285826</v>
+        <v>2066.214730721189</v>
       </c>
       <c r="Y29" t="n">
-        <v>2920.016929206427</v>
+        <v>1669.72402164179</v>
       </c>
     </row>
     <row r="30">
@@ -6539,28 +6539,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I30" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J30" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K30" t="n">
-        <v>75.96123154786345</v>
+        <v>589.9971470274371</v>
       </c>
       <c r="L30" t="n">
-        <v>313.8895596758445</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="M30" t="n">
-        <v>1022.025029968184</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="N30" t="n">
-        <v>1760.29381304741</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O30" t="n">
-        <v>2352.277072610002</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P30" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q30" t="n">
         <v>2352.277072610002</v>
@@ -6597,43 +6597,43 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>702.2337187680125</v>
+        <v>512.088724605964</v>
       </c>
       <c r="C31" t="n">
-        <v>702.2337187680125</v>
+        <v>512.088724605964</v>
       </c>
       <c r="D31" t="n">
-        <v>702.2337187680125</v>
+        <v>356.4556115084787</v>
       </c>
       <c r="E31" t="n">
-        <v>554.3363259877062</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="F31" t="n">
-        <v>397.0103912006792</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="G31" t="n">
-        <v>229.0276415110502</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="H31" t="n">
-        <v>75.96123154786345</v>
+        <v>200.8967993676812</v>
       </c>
       <c r="I31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J31" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K31" t="n">
         <v>188.6896288950475</v>
       </c>
       <c r="L31" t="n">
-        <v>392.350128542232</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M31" t="n">
-        <v>620.3235645955795</v>
+        <v>620.3235645955797</v>
       </c>
       <c r="N31" t="n">
-        <v>844.2039549289402</v>
+        <v>844.2039549289404</v>
       </c>
       <c r="O31" t="n">
         <v>1044.49322140544</v>
@@ -6642,31 +6642,31 @@
         <v>1196.529419371398</v>
       </c>
       <c r="Q31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S31" t="n">
-        <v>1222.217555045145</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T31" t="n">
-        <v>987.6577121146066</v>
+        <v>1061.398471853962</v>
       </c>
       <c r="U31" t="n">
-        <v>702.2337187680125</v>
+        <v>1061.398471853962</v>
       </c>
       <c r="V31" t="n">
-        <v>702.2337187680125</v>
+        <v>795.4191266747864</v>
       </c>
       <c r="W31" t="n">
-        <v>702.2337187680125</v>
+        <v>512.088724605964</v>
       </c>
       <c r="X31" t="n">
-        <v>702.2337187680125</v>
+        <v>512.088724605964</v>
       </c>
       <c r="Y31" t="n">
-        <v>702.2337187680125</v>
+        <v>512.088724605964</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1898.517673207239</v>
+        <v>1789.07538005752</v>
       </c>
       <c r="C32" t="n">
-        <v>1898.517673207239</v>
+        <v>1395.899878560451</v>
       </c>
       <c r="D32" t="n">
-        <v>1625.885998338852</v>
+        <v>1010.458749777118</v>
       </c>
       <c r="E32" t="n">
-        <v>1223.302473455396</v>
+        <v>607.8752248936629</v>
       </c>
       <c r="F32" t="n">
-        <v>806.4080349853741</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="G32" t="n">
-        <v>393.8501056722426</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="H32" t="n">
-        <v>75.96123154786345</v>
+        <v>190.9807864236407</v>
       </c>
       <c r="I32" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J32" t="n">
-        <v>270.9233280874836</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K32" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L32" t="n">
         <v>1292.177839612517</v>
@@ -6718,34 +6718,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P32" t="n">
-        <v>3549.201349130635</v>
+        <v>3549.201349130636</v>
       </c>
       <c r="Q32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="R32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="S32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T32" t="n">
-        <v>3798.061577393172</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U32" t="n">
-        <v>3798.061577393172</v>
+        <v>3542.357233923681</v>
       </c>
       <c r="V32" t="n">
-        <v>3455.954768096691</v>
+        <v>3200.250424627199</v>
       </c>
       <c r="W32" t="n">
-        <v>3084.955733064978</v>
+        <v>2829.251389595487</v>
       </c>
       <c r="X32" t="n">
-        <v>2695.503127998035</v>
+        <v>2586.060834848316</v>
       </c>
       <c r="Y32" t="n">
-        <v>2299.012418918636</v>
+        <v>2189.570125768917</v>
       </c>
     </row>
     <row r="33">
@@ -6776,28 +6776,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I33" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J33" t="n">
-        <v>75.96123154786345</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K33" t="n">
-        <v>75.96123154786345</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L33" t="n">
-        <v>628.3937003794192</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.529170671759</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N33" t="n">
-        <v>2074.797953750985</v>
+        <v>1880.698398938219</v>
       </c>
       <c r="O33" t="n">
-        <v>2074.797953750985</v>
+        <v>1880.698398938219</v>
       </c>
       <c r="P33" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q33" t="n">
         <v>2352.277072610002</v>
@@ -6834,31 +6834,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="C34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="D34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="E34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="F34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="G34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K34" t="n">
         <v>188.6896288950475</v>
@@ -6885,25 +6885,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S34" t="n">
-        <v>1024.129563703551</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T34" t="n">
-        <v>910.6949721424555</v>
+        <v>1144.775294359473</v>
       </c>
       <c r="U34" t="n">
-        <v>625.2709787958615</v>
+        <v>859.3513010128785</v>
       </c>
       <c r="V34" t="n">
-        <v>359.2916336166858</v>
+        <v>593.3719558337027</v>
       </c>
       <c r="W34" t="n">
-        <v>75.96123154786345</v>
+        <v>310.0415537648804</v>
       </c>
       <c r="X34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="Y34" t="n">
-        <v>75.96123154786345</v>
+        <v>75.96123154786346</v>
       </c>
     </row>
     <row r="35">
@@ -6913,34 +6913,34 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1269.229275930393</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C35" t="n">
-        <v>876.0537744333237</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D35" t="n">
-        <v>876.0537744333237</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E35" t="n">
-        <v>508.8696605480199</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F35" t="n">
-        <v>508.8696605480199</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G35" t="n">
-        <v>508.8696605480199</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H35" t="n">
-        <v>190.9807864236407</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I35" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J35" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874836</v>
       </c>
       <c r="K35" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L35" t="n">
         <v>1292.177839612517</v>
@@ -6955,34 +6955,34 @@
         <v>3115.769891361771</v>
       </c>
       <c r="P35" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="R35" t="n">
-        <v>3798.061577393173</v>
+        <v>3798.061577393172</v>
       </c>
       <c r="S35" t="n">
-        <v>3645.330499340869</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T35" t="n">
-        <v>3424.477523585819</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U35" t="n">
-        <v>3168.773180116326</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="V35" t="n">
-        <v>2826.666370819845</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="W35" t="n">
-        <v>2455.667335788132</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X35" t="n">
-        <v>2066.214730721189</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y35" t="n">
-        <v>1669.72402164179</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="36">
@@ -7013,28 +7013,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I36" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J36" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K36" t="n">
-        <v>75.96123154786346</v>
+        <v>446.9164895271324</v>
       </c>
       <c r="L36" t="n">
-        <v>75.96123154786346</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="M36" t="n">
-        <v>784.0967018402031</v>
+        <v>999.3489583586882</v>
       </c>
       <c r="N36" t="n">
-        <v>1522.365484919429</v>
+        <v>1019.255099689836</v>
       </c>
       <c r="O36" t="n">
-        <v>2114.348744482021</v>
+        <v>1611.238359252428</v>
       </c>
       <c r="P36" t="n">
-        <v>2352.277072610002</v>
+        <v>2077.425419922113</v>
       </c>
       <c r="Q36" t="n">
         <v>2352.277072610002</v>
@@ -7071,31 +7071,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>401.7994625793595</v>
+        <v>231.520043688661</v>
       </c>
       <c r="C37" t="n">
-        <v>231.5943446453487</v>
+        <v>231.520043688661</v>
       </c>
       <c r="D37" t="n">
-        <v>75.96123154786346</v>
+        <v>231.520043688661</v>
       </c>
       <c r="E37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J37" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K37" t="n">
         <v>188.6896288950475</v>
@@ -7125,22 +7125,22 @@
         <v>1222.217555045145</v>
       </c>
       <c r="T37" t="n">
-        <v>1222.217555045145</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U37" t="n">
-        <v>1222.217555045145</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V37" t="n">
-        <v>1222.217555045145</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="W37" t="n">
-        <v>1044.199864671034</v>
+        <v>418.9033166991902</v>
       </c>
       <c r="X37" t="n">
-        <v>810.1195424540174</v>
+        <v>231.520043688661</v>
       </c>
       <c r="Y37" t="n">
-        <v>587.0074812706607</v>
+        <v>231.520043688661</v>
       </c>
     </row>
     <row r="38">
@@ -7150,13 +7150,13 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1298.589100828087</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C38" t="n">
-        <v>905.4135993310172</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D38" t="n">
-        <v>905.4135993310172</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E38" t="n">
         <v>905.4135993310172</v>
@@ -7165,13 +7165,13 @@
         <v>488.5191608609949</v>
       </c>
       <c r="G38" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H38" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I38" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J38" t="n">
         <v>270.9233280874837</v>
@@ -7180,13 +7180,13 @@
         <v>705.31081511305</v>
       </c>
       <c r="L38" t="n">
-        <v>1292.177839612518</v>
+        <v>1292.177839612517</v>
       </c>
       <c r="M38" t="n">
         <v>1942.267504401619</v>
       </c>
       <c r="N38" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O38" t="n">
         <v>3115.769891361771</v>
@@ -7201,25 +7201,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S38" t="n">
-        <v>3674.690324238562</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="T38" t="n">
-        <v>3453.837348483512</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U38" t="n">
-        <v>3198.13300501402</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="V38" t="n">
-        <v>2856.026195717538</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W38" t="n">
-        <v>2485.027160685826</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X38" t="n">
-        <v>2095.574555618883</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y38" t="n">
-        <v>1699.083846539484</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="39">
@@ -7250,28 +7250,28 @@
         <v>114.206631213339</v>
       </c>
       <c r="I39" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J39" t="n">
-        <v>75.96123154786346</v>
+        <v>219.0418890481681</v>
       </c>
       <c r="K39" t="n">
-        <v>75.96123154786346</v>
+        <v>589.997147027437</v>
       </c>
       <c r="L39" t="n">
-        <v>75.96123154786346</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="M39" t="n">
-        <v>784.0967018402031</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N39" t="n">
-        <v>1522.365484919429</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="O39" t="n">
-        <v>2114.348744482021</v>
+        <v>1734.412875421585</v>
       </c>
       <c r="P39" t="n">
-        <v>2352.277072610002</v>
+        <v>2200.59993609127</v>
       </c>
       <c r="Q39" t="n">
         <v>2352.277072610002</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I40" t="n">
-        <v>87.15829400933013</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J40" t="n">
-        <v>75.96123154786346</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K40" t="n">
         <v>188.6896288950475</v>
@@ -7356,28 +7356,28 @@
         <v>1222.217555045145</v>
       </c>
       <c r="R40" t="n">
-        <v>1110.515389561699</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="S40" t="n">
-        <v>1057.849973443418</v>
+        <v>1222.217555045145</v>
       </c>
       <c r="T40" t="n">
-        <v>1057.849973443418</v>
+        <v>987.6577121146066</v>
       </c>
       <c r="U40" t="n">
-        <v>772.4259800968241</v>
+        <v>702.2337187680125</v>
       </c>
       <c r="V40" t="n">
-        <v>506.4466349176483</v>
+        <v>436.2543735888368</v>
       </c>
       <c r="W40" t="n">
-        <v>506.4466349176483</v>
+        <v>152.9239715200144</v>
       </c>
       <c r="X40" t="n">
-        <v>272.3663127006314</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y40" t="n">
-        <v>272.3663127006314</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
     <row r="41">
@@ -7387,34 +7387,34 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2438.116337550846</v>
+        <v>2086.613754494874</v>
       </c>
       <c r="C41" t="n">
-        <v>2044.940836053776</v>
+        <v>1693.438252997805</v>
       </c>
       <c r="D41" t="n">
-        <v>1659.499707270444</v>
+        <v>1307.997124214473</v>
       </c>
       <c r="E41" t="n">
-        <v>1256.916182386989</v>
+        <v>905.4135993310172</v>
       </c>
       <c r="F41" t="n">
-        <v>840.0217439169663</v>
+        <v>488.5191608609949</v>
       </c>
       <c r="G41" t="n">
-        <v>427.4638146038349</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="H41" t="n">
-        <v>109.5749404794557</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="I41" t="n">
         <v>75.96123154786346</v>
       </c>
       <c r="J41" t="n">
-        <v>270.9233280874837</v>
+        <v>270.9233280874842</v>
       </c>
       <c r="K41" t="n">
-        <v>705.3108151130497</v>
+        <v>705.31081511305</v>
       </c>
       <c r="L41" t="n">
         <v>1292.177839612517</v>
@@ -7423,7 +7423,7 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N41" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O41" t="n">
         <v>3115.769891361771</v>
@@ -7441,22 +7441,22 @@
         <v>3798.061577393173</v>
       </c>
       <c r="T41" t="n">
-        <v>3577.208601638123</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="U41" t="n">
-        <v>3577.208601638123</v>
+        <v>3798.061577393173</v>
       </c>
       <c r="V41" t="n">
-        <v>3235.101792341642</v>
+        <v>3644.050849384326</v>
       </c>
       <c r="W41" t="n">
-        <v>3235.101792341642</v>
+        <v>3273.051814352613</v>
       </c>
       <c r="X41" t="n">
-        <v>3235.101792341642</v>
+        <v>2883.59920928567</v>
       </c>
       <c r="Y41" t="n">
-        <v>2838.611083262243</v>
+        <v>2487.108500206271</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>2306.520858014191</v>
+        <v>860.7363532310205</v>
       </c>
       <c r="C42" t="n">
-        <v>2155.866627574283</v>
+        <v>710.0821227911127</v>
       </c>
       <c r="D42" t="n">
-        <v>2025.777660195763</v>
+        <v>579.9931554125931</v>
       </c>
       <c r="E42" t="n">
-        <v>1889.331169306651</v>
+        <v>443.5466645234808</v>
       </c>
       <c r="F42" t="n">
-        <v>1764.899363189783</v>
+        <v>319.1148584066126</v>
       </c>
       <c r="G42" t="n">
-        <v>1645.163155807578</v>
+        <v>199.3786510244077</v>
       </c>
       <c r="H42" t="n">
-        <v>1559.991135996509</v>
+        <v>114.206631213339</v>
       </c>
       <c r="I42" t="n">
-        <v>1521.745736331034</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="J42" t="n">
-        <v>1521.745736331034</v>
+        <v>75.96123154786346</v>
       </c>
       <c r="K42" t="n">
-        <v>1521.745736331034</v>
+        <v>353.4403504068808</v>
       </c>
       <c r="L42" t="n">
-        <v>1521.745736331034</v>
+        <v>905.8728192384366</v>
       </c>
       <c r="M42" t="n">
-        <v>2229.881206623374</v>
+        <v>1614.008289530776</v>
       </c>
       <c r="N42" t="n">
-        <v>2968.1499897026</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="O42" t="n">
-        <v>3560.133249265192</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="P42" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="Q42" t="n">
-        <v>3798.061577393173</v>
+        <v>2352.277072610002</v>
       </c>
       <c r="R42" t="n">
-        <v>3794.236775028933</v>
+        <v>2348.452270245762</v>
       </c>
       <c r="S42" t="n">
-        <v>3665.317021885014</v>
+        <v>2219.532517101843</v>
       </c>
       <c r="T42" t="n">
-        <v>3489.637587679143</v>
+        <v>2043.853082895972</v>
       </c>
       <c r="U42" t="n">
-        <v>3279.59573452528</v>
+        <v>1833.811229742109</v>
       </c>
       <c r="V42" t="n">
-        <v>3057.055732896347</v>
+        <v>1611.271228113176</v>
       </c>
       <c r="W42" t="n">
-        <v>2826.938487029634</v>
+        <v>1381.153982246463</v>
       </c>
       <c r="X42" t="n">
-        <v>2637.631409379645</v>
+        <v>1191.846904596475</v>
       </c>
       <c r="Y42" t="n">
-        <v>2458.317192455152</v>
+        <v>1012.532687671982</v>
       </c>
     </row>
     <row r="43">
@@ -7545,19 +7545,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>468.1533965509956</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="C43" t="n">
-        <v>468.1533965509956</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="D43" t="n">
-        <v>312.5202834535103</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="E43" t="n">
-        <v>156.9614713127128</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="F43" t="n">
-        <v>75.96123154786346</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="G43" t="n">
         <v>75.96123154786346</v>
@@ -7596,25 +7596,25 @@
         <v>1222.217555045145</v>
       </c>
       <c r="S43" t="n">
-        <v>1222.217555045145</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="T43" t="n">
-        <v>987.6577121146066</v>
+        <v>1024.129563703551</v>
       </c>
       <c r="U43" t="n">
-        <v>702.2337187680125</v>
+        <v>738.7055703569567</v>
       </c>
       <c r="V43" t="n">
-        <v>702.2337187680125</v>
+        <v>527.2743833063148</v>
       </c>
       <c r="W43" t="n">
-        <v>702.2337187680125</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="X43" t="n">
-        <v>468.1533965509956</v>
+        <v>243.9439812374925</v>
       </c>
       <c r="Y43" t="n">
-        <v>468.1533965509956</v>
+        <v>243.9439812374925</v>
       </c>
     </row>
     <row r="44">
@@ -7624,22 +7624,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2086.613754494874</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="C44" t="n">
-        <v>1693.438252997805</v>
+        <v>2011.327127122184</v>
       </c>
       <c r="D44" t="n">
-        <v>1307.997124214473</v>
+        <v>1625.885998338852</v>
       </c>
       <c r="E44" t="n">
-        <v>905.4135993310172</v>
+        <v>1223.302473455396</v>
       </c>
       <c r="F44" t="n">
-        <v>488.5191608609949</v>
+        <v>806.4080349853741</v>
       </c>
       <c r="G44" t="n">
-        <v>75.96123154786345</v>
+        <v>393.8501056722426</v>
       </c>
       <c r="H44" t="n">
         <v>75.96123154786345</v>
@@ -7651,7 +7651,7 @@
         <v>270.9233280874835</v>
       </c>
       <c r="K44" t="n">
-        <v>705.3108151130496</v>
+        <v>705.3108151130497</v>
       </c>
       <c r="L44" t="n">
         <v>1292.177839612517</v>
@@ -7660,13 +7660,13 @@
         <v>1942.267504401619</v>
       </c>
       <c r="N44" t="n">
-        <v>2575.851817818622</v>
+        <v>2575.851817818621</v>
       </c>
       <c r="O44" t="n">
         <v>3115.769891361771</v>
       </c>
       <c r="P44" t="n">
-        <v>3549.201349130636</v>
+        <v>3549.201349130635</v>
       </c>
       <c r="Q44" t="n">
         <v>3798.061577393173</v>
@@ -7675,25 +7675,25 @@
         <v>3798.061577393173</v>
       </c>
       <c r="S44" t="n">
-        <v>3798.061577393173</v>
+        <v>3645.330499340868</v>
       </c>
       <c r="T44" t="n">
-        <v>3798.061577393173</v>
+        <v>3424.477523585818</v>
       </c>
       <c r="U44" t="n">
-        <v>3798.061577393173</v>
+        <v>3168.773180116326</v>
       </c>
       <c r="V44" t="n">
-        <v>3644.050849384326</v>
+        <v>2826.666370819845</v>
       </c>
       <c r="W44" t="n">
-        <v>3273.051814352613</v>
+        <v>2455.667335788132</v>
       </c>
       <c r="X44" t="n">
-        <v>2883.59920928567</v>
+        <v>2404.502628619254</v>
       </c>
       <c r="Y44" t="n">
-        <v>2487.108500206271</v>
+        <v>2404.502628619254</v>
       </c>
     </row>
     <row r="45">
@@ -7736,7 +7736,7 @@
         <v>1142.429615858993</v>
       </c>
       <c r="M45" t="n">
-        <v>1611.238359252428</v>
+        <v>1142.429615858993</v>
       </c>
       <c r="N45" t="n">
         <v>1611.238359252428</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="C46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="D46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="E46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="F46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="G46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="H46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="I46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="J46" t="n">
-        <v>2651.80525389589</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="K46" t="n">
-        <v>2764.533651243074</v>
+        <v>188.6896288950475</v>
       </c>
       <c r="L46" t="n">
-        <v>2968.194150890259</v>
+        <v>392.3501285422321</v>
       </c>
       <c r="M46" t="n">
-        <v>3196.167586943607</v>
+        <v>620.3235645955796</v>
       </c>
       <c r="N46" t="n">
-        <v>3420.047977276968</v>
+        <v>844.2039549289403</v>
       </c>
       <c r="O46" t="n">
-        <v>3620.337243753468</v>
+        <v>1044.49322140544</v>
       </c>
       <c r="P46" t="n">
-        <v>3772.373441719426</v>
+        <v>1196.529419371398</v>
       </c>
       <c r="Q46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="R46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="S46" t="n">
-        <v>3798.061577393173</v>
+        <v>1222.217555045146</v>
       </c>
       <c r="T46" t="n">
-        <v>3563.501734462634</v>
+        <v>987.6577121146069</v>
       </c>
       <c r="U46" t="n">
-        <v>3278.07774111604</v>
+        <v>702.2337187680127</v>
       </c>
       <c r="V46" t="n">
-        <v>3012.098395936864</v>
+        <v>436.254373588837</v>
       </c>
       <c r="W46" t="n">
-        <v>2728.767993868042</v>
+        <v>152.9239715200146</v>
       </c>
       <c r="X46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786345</v>
       </c>
       <c r="Y46" t="n">
-        <v>2728.767993868042</v>
+        <v>75.96123154786345</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
         <v>412.5657697396227</v>
@@ -8069,7 +8069,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N3" t="n">
-        <v>447.5171231095475</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O3" t="n">
         <v>614.4252180716981</v>
@@ -8294,19 +8294,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J6" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>203.8424305246122</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>726.4998994499999</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N6" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O6" t="n">
         <v>614.4252180716981</v>
@@ -8315,7 +8315,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8531,7 +8531,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
@@ -8540,16 +8540,16 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N9" t="n">
-        <v>684.2495388215582</v>
+        <v>345.5977578821532</v>
       </c>
       <c r="O9" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
         <v>90.98815315591399</v>
@@ -8768,19 +8768,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
-        <v>115.0989755892052</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
         <v>614.4252180716981</v>
@@ -9005,16 +9005,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>124.646981443537</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9023,10 +9023,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9242,28 +9242,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>72.3475064186831</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>72.33963800151597</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>495.8966088833764</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N18" t="n">
-        <v>747.7741039759435</v>
+        <v>67.24350216017226</v>
       </c>
       <c r="O18" t="n">
-        <v>614.4252180716981</v>
+        <v>67.26026692161609</v>
       </c>
       <c r="P18" t="n">
-        <v>66.67572130591961</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>77.34618391493257</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9485,16 +9485,16 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L21" t="n">
-        <v>66.85578091152294</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>726.4998994499999</v>
+        <v>65.30848807970345</v>
       </c>
       <c r="N21" t="n">
-        <v>57.5767880183724</v>
+        <v>181.2699623803868</v>
       </c>
       <c r="O21" t="n">
-        <v>588.5821388252865</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P21" t="n">
         <v>496.801919078302</v>
@@ -9716,28 +9716,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L24" t="n">
-        <v>260.8299884677651</v>
+        <v>454.0922354722274</v>
       </c>
       <c r="M24" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935383</v>
       </c>
       <c r="N24" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573868</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P24" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9953,19 +9953,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>505.222321419942</v>
+        <v>454.0922354722274</v>
       </c>
       <c r="M27" t="n">
-        <v>11.21154561935391</v>
+        <v>11.21154561935383</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573868</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
@@ -9974,7 +9974,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10190,28 +10190,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>260.8299884677651</v>
+        <v>454.0922354722274</v>
       </c>
       <c r="M30" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935383</v>
       </c>
       <c r="N30" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573868</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P30" t="n">
-        <v>25.90589819983202</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10427,16 +10427,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N33" t="n">
         <v>747.7741039759435</v>
@@ -10445,10 +10445,10 @@
         <v>16.46232962463526</v>
       </c>
       <c r="P33" t="n">
-        <v>306.1878364412638</v>
+        <v>224.6200608098266</v>
       </c>
       <c r="Q33" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10667,25 +10667,25 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K36" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>22.15527392737978</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>266.2375427735501</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q36" t="n">
-        <v>50.09263685995592</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R36" t="n">
         <v>71.01380490566048</v>
@@ -10901,28 +10901,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>52.17609846406339</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
-        <v>37.86348895248232</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L39" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>726.4998994499999</v>
+        <v>11.21154561935391</v>
       </c>
       <c r="N39" t="n">
-        <v>747.7741039759435</v>
+        <v>2.048060461573968</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>266.2375427735501</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q39" t="n">
-        <v>50.09263685995592</v>
+        <v>203.3018656667558</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11141,10 +11141,10 @@
         <v>52.17609846406339</v>
       </c>
       <c r="K42" t="n">
-        <v>37.86348895248232</v>
+        <v>318.145427193914</v>
       </c>
       <c r="L42" t="n">
-        <v>20.498343894047</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
         <v>726.4998994499999</v>
@@ -11153,10 +11153,10 @@
         <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
-        <v>614.4252180716981</v>
+        <v>16.46232962463526</v>
       </c>
       <c r="P42" t="n">
-        <v>266.2375427735506</v>
+        <v>25.90589819983202</v>
       </c>
       <c r="Q42" t="n">
         <v>50.09263685995592</v>
@@ -11384,13 +11384,13 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>484.755730865248</v>
+        <v>11.21154561935388</v>
       </c>
       <c r="N45" t="n">
-        <v>2.048060461573968</v>
+        <v>475.5922457074681</v>
       </c>
       <c r="O45" t="n">
-        <v>16.46232962463526</v>
+        <v>16.46232962463523</v>
       </c>
       <c r="P45" t="n">
         <v>496.801919078302</v>
@@ -22546,22 +22546,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>123.1415871370875</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>194.1922146664557</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
         <v>320.8422199291742</v>
@@ -22597,10 +22597,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22615,7 +22615,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22710,25 +22710,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>53.73337658004174</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22758,16 +22758,16 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -22783,13 +22783,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>259.0420501163147</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -22798,13 +22798,13 @@
         <v>412.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22831,7 +22831,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>1.867748656681712</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -22989,10 +22989,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -23001,10 +23001,10 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>210.2831670182383</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>280.4970980481341</v>
+        <v>167.3303626133476</v>
       </c>
       <c r="X7" t="n">
         <v>231.7395189948467</v>
@@ -23023,22 +23023,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>27.14266382772985</v>
       </c>
       <c r="H8" t="n">
-        <v>308.8693073160131</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -23068,25 +23068,25 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>253.1952022697474</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23181,25 +23181,25 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>23.65888910788266</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
         <v>30.07448747215907</v>
@@ -23229,7 +23229,7 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S10" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>233.3618613134482</v>
@@ -23238,16 +23238,16 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>241.5560277648513</v>
       </c>
       <c r="X10" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23257,10 +23257,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>192.2712193770315</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>106.1766407948147</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,7 +23305,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -23314,10 +23314,10 @@
         <v>221.2655964161775</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>253.1952022697474</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W11" t="n">
         <v>367.2890446813954</v>
@@ -23326,7 +23326,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y11" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23436,10 +23436,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I13" t="n">
-        <v>108.8015838723062</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>231.7395189948467</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23503,16 +23503,16 @@
         <v>381.5867174954989</v>
       </c>
       <c r="E14" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>409.0311279568768</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I14" t="n">
         <v>136.9537457384598</v>
@@ -23545,10 +23545,10 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>164.8484195083599</v>
+        <v>130.9724172187777</v>
       </c>
       <c r="T14" t="n">
-        <v>51.69634531462776</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
@@ -23557,7 +23557,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J16" t="n">
         <v>30.07448747215907</v>
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>78.72709640014718</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>167.3303626133475</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>231.7395189948467</v>
@@ -23740,19 +23740,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>408.8313869843473</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>318.7966226942565</v>
       </c>
       <c r="I17" t="n">
-        <v>129.2532318950162</v>
+        <v>57.37990527104817</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,22 +23779,22 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>25.06600571167697</v>
+        <v>25.06600571167717</v>
       </c>
       <c r="S17" t="n">
-        <v>47.85416395436825</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>220.3912303089296</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>253.179222991945</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23910,10 +23910,10 @@
         <v>153.1271674224727</v>
       </c>
       <c r="I19" t="n">
-        <v>129.0690572509242</v>
+        <v>129.0690572509243</v>
       </c>
       <c r="J19" t="n">
-        <v>23.73998494902331</v>
+        <v>23.73998494902342</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>118.6333759660428</v>
+        <v>118.6333759660429</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>199.2264929501066</v>
       </c>
       <c r="T19" t="n">
         <v>232.9790380929424</v>
       </c>
       <c r="U19" t="n">
-        <v>52.34300106914472</v>
+        <v>84.85602711388609</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>220.8809405715231</v>
@@ -23974,7 +23974,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>126.7115715838817</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>318.7966226942565</v>
       </c>
       <c r="I20" t="n">
-        <v>10.50756745828694</v>
+        <v>129.2532318950163</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,13 +24016,13 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>25.06600571167699</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>160.2968220968439</v>
+        <v>160.296822096844</v>
       </c>
       <c r="T20" t="n">
-        <v>220.3912303089296</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>253.179222991945</v>
@@ -24126,7 +24126,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>183.3559385043883</v>
+        <v>36.47244662342743</v>
       </c>
       <c r="C22" t="n">
         <v>168.5030667546707</v>
@@ -24141,16 +24141,16 @@
         <v>155.7526754391568</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4819164376007</v>
       </c>
       <c r="H22" t="n">
-        <v>26.23738972803274</v>
+        <v>153.1271674224727</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>129.0690572509243</v>
       </c>
       <c r="J22" t="n">
-        <v>23.73998494902332</v>
+        <v>23.73998494902341</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>118.6333759660429</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>199.2264929501066</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>232.9790380929424</v>
       </c>
       <c r="U22" t="n">
-        <v>282.5795167355755</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>231.7395189948467</v>
@@ -24220,13 +24220,13 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>186.2151204747583</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I23" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24265,7 +24265,7 @@
         <v>253.1473000347972</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>186.2151204747575</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C25" t="n">
         <v>168.5030667546707</v>
@@ -24387,7 +24387,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J25" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,28 +24411,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>110.585143828612</v>
+        <v>34.39203125618231</v>
       </c>
       <c r="S25" t="n">
         <v>196.1071114281788</v>
       </c>
       <c r="T25" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>44.99928758396754</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="26">
@@ -24448,22 +24448,22 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>400.7782837588371</v>
+        <v>171.6450623410752</v>
       </c>
       <c r="G26" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>314.7099853831353</v>
       </c>
       <c r="I26" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C28" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E28" t="n">
         <v>154.0032240193895</v>
@@ -24618,13 +24618,13 @@
         <v>166.3029221927327</v>
       </c>
       <c r="H28" t="n">
-        <v>151.5357458635549</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>123.6862121416195</v>
       </c>
       <c r="J28" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24651,25 +24651,25 @@
         <v>110.585143828612</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>39.23550021807068</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U28" t="n">
-        <v>134.4110101226529</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>231.7395189948467</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="29">
@@ -24685,13 +24685,13 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>412.725494085322</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24700,7 +24700,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>44.92007727354931</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>276.108723981397</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24843,25 +24843,25 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D31" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>7.584805166886298</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>166.3029221927327</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>151.5357458635549</v>
       </c>
       <c r="I31" t="n">
-        <v>123.6862121416195</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>11.08509183685201</v>
+        <v>11.08509183685199</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -24891,16 +24891,16 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>73.0033521419619</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>282.5697534131281</v>
       </c>
       <c r="V31" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>231.7395189948467</v>
@@ -24919,10 +24919,10 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>111.6813593757959</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,13 +24931,13 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>408.4323500200001</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I32" t="n">
-        <v>113.8693593270195</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>218.6444459974996</v>
       </c>
       <c r="U32" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -24982,7 +24982,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>0</v>
+        <v>144.7994298165748</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -25125,10 +25125,10 @@
         <v>110.585143828612</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T34" t="n">
-        <v>119.9139988557492</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>220.8809405715231</v>
@@ -25159,22 +25159,22 @@
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>35.04541688817005</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>412.725494085322</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>408.4323500200001</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25210,13 +25210,13 @@
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0</v>
+        <v>253.1473000347972</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>217.3775925405229</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
@@ -25311,16 +25311,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E37" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>155.7526754391568</v>
@@ -25365,22 +25365,22 @@
         <v>196.1071114281788</v>
       </c>
       <c r="T37" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>282.5697534131281</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W37" t="n">
-        <v>104.2595845777641</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>46.23007871442283</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="38">
@@ -25396,10 +25396,10 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
@@ -25441,16 +25441,16 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>29.06622664871627</v>
+        <v>151.2037672717813</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>100.6766793060389</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C40" t="n">
         <v>168.5030667546707</v>
@@ -25572,7 +25572,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>11.08509183685201</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>110.585143828612</v>
       </c>
       <c r="S40" t="n">
-        <v>143.9683494710807</v>
+        <v>196.1071114281788</v>
       </c>
       <c r="T40" t="n">
-        <v>232.2142445012334</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25611,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>155.5464064224173</v>
       </c>
       <c r="Y40" t="n">
         <v>220.8809405715231</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>314.7099853831353</v>
       </c>
       <c r="I41" t="n">
-        <v>80.59178748474315</v>
+        <v>113.8693593270195</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>151.2037672717813</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>218.6444459974996</v>
       </c>
       <c r="U41" t="n">
         <v>253.1473000347972</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>186.215120474758</v>
       </c>
       <c r="W41" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -25791,16 +25791,16 @@
         <v>168.5030667546707</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F43" t="n">
-        <v>75.56243807195591</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G43" t="n">
-        <v>166.3029221927327</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>151.5357458635549</v>
@@ -25836,22 +25836,22 @@
         <v>110.585143828612</v>
       </c>
       <c r="S43" t="n">
-        <v>196.1071114281788</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>232.2142445012334</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>263.319551727384</v>
+        <v>54.00267654724851</v>
       </c>
       <c r="W43" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y43" t="n">
         <v>220.8809405715231</v>
@@ -25864,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25882,10 +25882,10 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>314.7099853831353</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>113.8693593270195</v>
+        <v>113.8693593270194</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25915,25 +25915,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>151.2037672717813</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6444459974996</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>253.1473000347972</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>186.2151204747584</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>334.905018919084</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="45">
@@ -26022,7 +26022,7 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.1628259319586</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C46" t="n">
         <v>168.5030667546707</v>
@@ -26046,7 +26046,7 @@
         <v>123.6862121416195</v>
       </c>
       <c r="J46" t="n">
-        <v>11.08509183685201</v>
+        <v>11.085091836852</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26088,7 +26088,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>231.7395189948467</v>
+        <v>155.5464064224171</v>
       </c>
       <c r="Y46" t="n">
         <v>220.8809405715231</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>649381.7185292927</v>
+        <v>649381.7185292928</v>
       </c>
     </row>
     <row r="3">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>649381.7185292927</v>
+        <v>649381.718529293</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>649381.7185292927</v>
+        <v>649381.7185292928</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>675662.5485224631</v>
+        <v>675662.5485224623</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>675662.548522463</v>
+        <v>675662.5485224623</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>728165.6603687386</v>
+        <v>728165.6603687387</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>728165.6603687383</v>
+        <v>728165.6603687386</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>728165.6603687385</v>
+        <v>728165.6603687387</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>728165.6603687386</v>
+        <v>728165.6603687385</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>728165.6603687387</v>
+        <v>728165.6603687386</v>
       </c>
     </row>
     <row r="15">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>279889.8847950437</v>
+        <v>279889.8847950438</v>
       </c>
       <c r="C2" t="n">
-        <v>279889.8847950437</v>
+        <v>279889.8847950439</v>
       </c>
       <c r="D2" t="n">
         <v>279889.8847950437</v>
       </c>
       <c r="E2" t="n">
+        <v>279889.8847950437</v>
+      </c>
+      <c r="F2" t="n">
         <v>279889.8847950436</v>
-      </c>
-      <c r="F2" t="n">
-        <v>279889.8847950437</v>
       </c>
       <c r="G2" t="n">
         <v>292196.2571638633</v>
       </c>
       <c r="H2" t="n">
-        <v>292196.2571638635</v>
+        <v>292196.2571638632</v>
       </c>
       <c r="I2" t="n">
-        <v>316781.5859023381</v>
+        <v>316781.5859023383</v>
       </c>
       <c r="J2" t="n">
-        <v>316781.5859023381</v>
+        <v>316781.5859023383</v>
       </c>
       <c r="K2" t="n">
-        <v>316781.5859023381</v>
+        <v>316781.5859023383</v>
       </c>
       <c r="L2" t="n">
         <v>316781.5859023381</v>
       </c>
       <c r="M2" t="n">
+        <v>316781.585902338</v>
+      </c>
+      <c r="N2" t="n">
         <v>316781.5859023381</v>
       </c>
-      <c r="N2" t="n">
-        <v>316781.5859023382</v>
-      </c>
       <c r="O2" t="n">
-        <v>316781.5859023382</v>
+        <v>316781.5859023383</v>
       </c>
       <c r="P2" t="n">
-        <v>316781.5859023381</v>
+        <v>316781.5859023383</v>
       </c>
     </row>
     <row r="3">
@@ -26380,16 +26380,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>54449.6009963645</v>
+        <v>54449.60099636369</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>105381.0203487481</v>
+        <v>105381.020348749</v>
       </c>
       <c r="J3" t="n">
-        <v>203163.7131126949</v>
+        <v>203163.713112695</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26404,7 +26404,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>13889.96518695405</v>
+        <v>13889.96518695385</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26423,19 +26423,19 @@
         <v>39261.69958392654</v>
       </c>
       <c r="D4" t="n">
-        <v>39261.69958392653</v>
+        <v>39261.69958392654</v>
       </c>
       <c r="E4" t="n">
         <v>39261.69958392654</v>
       </c>
       <c r="F4" t="n">
-        <v>39261.69958392654</v>
+        <v>39261.69958392653</v>
       </c>
       <c r="G4" t="n">
-        <v>38721.61950709661</v>
+        <v>38721.61950709662</v>
       </c>
       <c r="H4" t="n">
-        <v>38721.61950709661</v>
+        <v>38721.61950709662</v>
       </c>
       <c r="I4" t="n">
         <v>37642.66253781079</v>
@@ -26478,34 +26478,34 @@
         <v>80838.13705512779</v>
       </c>
       <c r="E5" t="n">
-        <v>47210.5370551278</v>
+        <v>47210.53705512779</v>
       </c>
       <c r="F5" t="n">
         <v>47210.53705512779</v>
       </c>
       <c r="G5" t="n">
-        <v>51802.95469354867</v>
+        <v>51802.95469354858</v>
       </c>
       <c r="H5" t="n">
-        <v>51802.95469354866</v>
+        <v>51802.95469354859</v>
       </c>
       <c r="I5" t="n">
+        <v>60977.55903357457</v>
+      </c>
+      <c r="J5" t="n">
+        <v>60977.55903357457</v>
+      </c>
+      <c r="K5" t="n">
+        <v>60977.55903357456</v>
+      </c>
+      <c r="L5" t="n">
         <v>60977.55903357455</v>
       </c>
-      <c r="J5" t="n">
+      <c r="M5" t="n">
         <v>60977.55903357454</v>
       </c>
-      <c r="K5" t="n">
+      <c r="N5" t="n">
         <v>60977.55903357454</v>
-      </c>
-      <c r="L5" t="n">
-        <v>60977.55903357454</v>
-      </c>
-      <c r="M5" t="n">
-        <v>60977.55903357455</v>
-      </c>
-      <c r="N5" t="n">
-        <v>60977.55903357455</v>
       </c>
       <c r="O5" t="n">
         <v>60977.55903357455</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-100429.3072638394</v>
+        <v>-100960.4022957046</v>
       </c>
       <c r="C6" t="n">
-        <v>159790.0481559894</v>
+        <v>159258.9531241244</v>
       </c>
       <c r="D6" t="n">
-        <v>159790.0481559894</v>
+        <v>159258.9531241242</v>
       </c>
       <c r="E6" t="n">
-        <v>193417.6481559893</v>
+        <v>192886.5531241242</v>
       </c>
       <c r="F6" t="n">
-        <v>193417.6481559894</v>
+        <v>192886.5531241241</v>
       </c>
       <c r="G6" t="n">
-        <v>147222.0819668536</v>
+        <v>146746.9249912111</v>
       </c>
       <c r="H6" t="n">
-        <v>201671.6829632182</v>
+        <v>201196.5259875747</v>
       </c>
       <c r="I6" t="n">
-        <v>112780.3439822047</v>
+        <v>112416.9385008265</v>
       </c>
       <c r="J6" t="n">
-        <v>14997.65121825782</v>
+        <v>14634.2457368804</v>
       </c>
       <c r="K6" t="n">
-        <v>218161.3643309528</v>
+        <v>217797.9588495754</v>
       </c>
       <c r="L6" t="n">
-        <v>218161.3643309528</v>
+        <v>217797.9588495753</v>
       </c>
       <c r="M6" t="n">
-        <v>218161.3643309528</v>
+        <v>217797.9588495751</v>
       </c>
       <c r="N6" t="n">
-        <v>218161.3643309529</v>
+        <v>217797.9588495753</v>
       </c>
       <c r="O6" t="n">
-        <v>204271.3991439988</v>
+        <v>203907.9936626217</v>
       </c>
       <c r="P6" t="n">
-        <v>218161.3643309528</v>
+        <v>217797.9588495755</v>
       </c>
     </row>
   </sheetData>
@@ -26752,19 +26752,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671356</v>
+        <v>49.68556691671275</v>
       </c>
       <c r="H3" t="n">
-        <v>49.68556691671346</v>
+        <v>49.68556691671279</v>
       </c>
       <c r="I3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980883</v>
       </c>
       <c r="J3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980883</v>
       </c>
       <c r="K3" t="n">
-        <v>148.9460117980881</v>
+        <v>148.9460117980883</v>
       </c>
       <c r="L3" t="n">
         <v>148.9460117980881</v>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>776.4890963014441</v>
@@ -26798,34 +26798,34 @@
         <v>776.4890963014441</v>
       </c>
       <c r="E4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.489096301444</v>
       </c>
       <c r="F4" t="n">
         <v>776.489096301444</v>
       </c>
       <c r="G4" t="n">
-        <v>834.207390374413</v>
+        <v>834.2073903744119</v>
       </c>
       <c r="H4" t="n">
-        <v>834.207390374413</v>
+        <v>834.2073903744119</v>
       </c>
       <c r="I4" t="n">
+        <v>949.5153943482934</v>
+      </c>
+      <c r="J4" t="n">
+        <v>949.5153943482934</v>
+      </c>
+      <c r="K4" t="n">
         <v>949.5153943482933</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
+        <v>949.5153943482933</v>
+      </c>
+      <c r="M4" t="n">
         <v>949.5153943482931</v>
       </c>
-      <c r="K4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="L4" t="n">
-        <v>949.5153943482931</v>
-      </c>
-      <c r="M4" t="n">
-        <v>949.5153943482933</v>
-      </c>
       <c r="N4" t="n">
-        <v>949.5153943482933</v>
+        <v>949.5153943482932</v>
       </c>
       <c r="O4" t="n">
         <v>949.5153943482933</v>
@@ -26974,13 +26974,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49.68556691671347</v>
+        <v>49.68556691671275</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>99.26044488137462</v>
+        <v>99.26044488137546</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27026,16 +27026,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>57.71829407296895</v>
+        <v>57.71829407296801</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>115.3080039738803</v>
+        <v>115.3080039738815</v>
       </c>
       <c r="J4" t="n">
-        <v>776.4890963014437</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27050,7 +27050,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296895</v>
+        <v>57.71829407296812</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>776.489096301444</v>
+        <v>776.4890963014441</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27272,7 +27272,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>57.71829407296895</v>
+        <v>57.71829407296801</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1997409725295016</v>
+        <v>0.1997409725294984</v>
       </c>
       <c r="H17" t="n">
-        <v>2.045597234917759</v>
+        <v>2.045597234917726</v>
       </c>
       <c r="I17" t="n">
-        <v>7.700513843443618</v>
+        <v>7.700513843443493</v>
       </c>
       <c r="J17" t="n">
-        <v>16.9527653672258</v>
+        <v>16.95276536722552</v>
       </c>
       <c r="K17" t="n">
-        <v>25.40780073439961</v>
+        <v>25.4078007343992</v>
       </c>
       <c r="L17" t="n">
-        <v>31.52062352244935</v>
+        <v>31.52062352244884</v>
       </c>
       <c r="M17" t="n">
-        <v>35.07276704267088</v>
+        <v>35.0727670426703</v>
       </c>
       <c r="N17" t="n">
-        <v>35.64028108087032</v>
+        <v>35.64028108086974</v>
       </c>
       <c r="O17" t="n">
-        <v>33.65410678528009</v>
+        <v>33.65410678527954</v>
       </c>
       <c r="P17" t="n">
-        <v>28.72300152595801</v>
+        <v>28.72300152595755</v>
       </c>
       <c r="Q17" t="n">
-        <v>21.56977794724523</v>
+        <v>21.56977794724488</v>
       </c>
       <c r="R17" t="n">
-        <v>12.54697886565632</v>
+        <v>12.54697886565611</v>
       </c>
       <c r="S17" t="n">
-        <v>4.551597411516022</v>
+        <v>4.551597411515949</v>
       </c>
       <c r="T17" t="n">
-        <v>0.8743661072478938</v>
+        <v>0.8743661072478794</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01597927780236013</v>
+        <v>0.01597927780235987</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1068708420472707</v>
+        <v>0.1068708420472689</v>
       </c>
       <c r="H18" t="n">
-        <v>1.03214734293022</v>
+        <v>1.032147342930203</v>
       </c>
       <c r="I18" t="n">
-        <v>3.679544342416996</v>
+        <v>3.679544342416936</v>
       </c>
       <c r="J18" t="n">
-        <v>10.09695091465026</v>
+        <v>10.09695091465009</v>
       </c>
       <c r="K18" t="n">
-        <v>17.25729733181739</v>
+        <v>17.25729733181711</v>
       </c>
       <c r="L18" t="n">
-        <v>23.20456594539533</v>
+        <v>23.20456594539495</v>
       </c>
       <c r="M18" t="n">
-        <v>27.07863396960889</v>
+        <v>27.07863396960845</v>
       </c>
       <c r="N18" t="n">
-        <v>27.79532483579432</v>
+        <v>27.79532483579386</v>
       </c>
       <c r="O18" t="n">
-        <v>25.42729196727321</v>
+        <v>25.4272919672728</v>
       </c>
       <c r="P18" t="n">
-        <v>20.40764351339505</v>
+        <v>20.40764351339472</v>
       </c>
       <c r="Q18" t="n">
-        <v>13.64196924098143</v>
+        <v>13.64196924098121</v>
       </c>
       <c r="R18" t="n">
-        <v>6.635366842198089</v>
+        <v>6.635366842197981</v>
       </c>
       <c r="S18" t="n">
-        <v>1.985079017851715</v>
+        <v>1.985079017851683</v>
       </c>
       <c r="T18" t="n">
-        <v>0.4307644905326391</v>
+        <v>0.4307644905326321</v>
       </c>
       <c r="U18" t="n">
-        <v>0.007030976450478337</v>
+        <v>0.007030976450478223</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.08959692394817198</v>
+        <v>0.08959692394817052</v>
       </c>
       <c r="H19" t="n">
-        <v>0.7965981056482934</v>
+        <v>0.7965981056482804</v>
       </c>
       <c r="I19" t="n">
-        <v>2.694423858368664</v>
+        <v>2.69442385836862</v>
       </c>
       <c r="J19" t="n">
-        <v>6.334502523135759</v>
+        <v>6.334502523135656</v>
       </c>
       <c r="K19" t="n">
-        <v>10.40953352779671</v>
+        <v>10.40953352779654</v>
       </c>
       <c r="L19" t="n">
-        <v>13.32061903862186</v>
+        <v>13.32061903862165</v>
       </c>
       <c r="M19" t="n">
-        <v>14.04472508762118</v>
+        <v>14.04472508762095</v>
       </c>
       <c r="N19" t="n">
-        <v>13.71077291654164</v>
+        <v>13.71077291654141</v>
       </c>
       <c r="O19" t="n">
-        <v>12.6641179413289</v>
+        <v>12.66411794132869</v>
       </c>
       <c r="P19" t="n">
-        <v>10.83634069278618</v>
+        <v>10.836340692786</v>
       </c>
       <c r="Q19" t="n">
-        <v>7.502520604423747</v>
+        <v>7.502520604423625</v>
       </c>
       <c r="R19" t="n">
-        <v>4.028603507705987</v>
+        <v>4.028603507705921</v>
       </c>
       <c r="S19" t="n">
-        <v>1.561430029169506</v>
+        <v>1.56143002916948</v>
       </c>
       <c r="T19" t="n">
-        <v>0.3828232205058257</v>
+        <v>0.3828232205058194</v>
       </c>
       <c r="U19" t="n">
-        <v>0.004887104942627569</v>
+        <v>0.004887104942627489</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1997409725295012</v>
+        <v>0.1997409725294985</v>
       </c>
       <c r="H20" t="n">
-        <v>2.045597234917754</v>
+        <v>2.045597234917727</v>
       </c>
       <c r="I20" t="n">
-        <v>7.700513843443601</v>
+        <v>7.700513843443498</v>
       </c>
       <c r="J20" t="n">
-        <v>16.95276536722577</v>
+        <v>16.95276536722554</v>
       </c>
       <c r="K20" t="n">
-        <v>25.40780073439955</v>
+        <v>25.40780073439921</v>
       </c>
       <c r="L20" t="n">
-        <v>31.52062352244928</v>
+        <v>31.52062352244886</v>
       </c>
       <c r="M20" t="n">
-        <v>35.0727670426708</v>
+        <v>35.07276704267033</v>
       </c>
       <c r="N20" t="n">
-        <v>35.64028108087025</v>
+        <v>35.64028108086977</v>
       </c>
       <c r="O20" t="n">
-        <v>33.65410678528001</v>
+        <v>33.65410678527957</v>
       </c>
       <c r="P20" t="n">
-        <v>28.72300152595795</v>
+        <v>28.72300152595757</v>
       </c>
       <c r="Q20" t="n">
-        <v>21.56977794724519</v>
+        <v>21.56977794724489</v>
       </c>
       <c r="R20" t="n">
-        <v>12.54697886565629</v>
+        <v>12.54697886565612</v>
       </c>
       <c r="S20" t="n">
-        <v>4.551597411516012</v>
+        <v>4.551597411515951</v>
       </c>
       <c r="T20" t="n">
-        <v>0.8743661072478919</v>
+        <v>0.8743661072478801</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01597927780236009</v>
+        <v>0.01597927780235988</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1068708420472705</v>
+        <v>0.106870842047269</v>
       </c>
       <c r="H21" t="n">
-        <v>1.032147342930217</v>
+        <v>1.032147342930203</v>
       </c>
       <c r="I21" t="n">
-        <v>3.679544342416988</v>
+        <v>3.679544342416938</v>
       </c>
       <c r="J21" t="n">
-        <v>10.09695091465023</v>
+        <v>10.0969509146501</v>
       </c>
       <c r="K21" t="n">
-        <v>17.25729733181735</v>
+        <v>17.25729733181712</v>
       </c>
       <c r="L21" t="n">
-        <v>23.20456594539528</v>
+        <v>23.20456594539497</v>
       </c>
       <c r="M21" t="n">
-        <v>27.07863396960883</v>
+        <v>27.07863396960846</v>
       </c>
       <c r="N21" t="n">
-        <v>27.79532483579426</v>
+        <v>27.79532483579388</v>
       </c>
       <c r="O21" t="n">
-        <v>25.42729196727316</v>
+        <v>25.42729196727282</v>
       </c>
       <c r="P21" t="n">
-        <v>20.407643513395</v>
+        <v>20.40764351339473</v>
       </c>
       <c r="Q21" t="n">
-        <v>13.6419692409814</v>
+        <v>13.64196924098122</v>
       </c>
       <c r="R21" t="n">
-        <v>6.635366842198075</v>
+        <v>6.635366842197985</v>
       </c>
       <c r="S21" t="n">
-        <v>1.985079017851711</v>
+        <v>1.985079017851684</v>
       </c>
       <c r="T21" t="n">
-        <v>0.4307644905326382</v>
+        <v>0.4307644905326324</v>
       </c>
       <c r="U21" t="n">
-        <v>0.007030976450478322</v>
+        <v>0.007030976450478227</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0895969239481718</v>
+        <v>0.08959692394817059</v>
       </c>
       <c r="H22" t="n">
-        <v>0.7965981056482916</v>
+        <v>0.7965981056482809</v>
       </c>
       <c r="I22" t="n">
-        <v>2.694423858368658</v>
+        <v>2.694423858368622</v>
       </c>
       <c r="J22" t="n">
-        <v>6.334502523135746</v>
+        <v>6.334502523135661</v>
       </c>
       <c r="K22" t="n">
-        <v>10.40953352779668</v>
+        <v>10.40953352779654</v>
       </c>
       <c r="L22" t="n">
-        <v>13.32061903862183</v>
+        <v>13.32061903862166</v>
       </c>
       <c r="M22" t="n">
-        <v>14.04472508762115</v>
+        <v>14.04472508762096</v>
       </c>
       <c r="N22" t="n">
-        <v>13.71077291654161</v>
+        <v>13.71077291654142</v>
       </c>
       <c r="O22" t="n">
-        <v>12.66411794132887</v>
+        <v>12.6641179413287</v>
       </c>
       <c r="P22" t="n">
-        <v>10.83634069278616</v>
+        <v>10.83634069278601</v>
       </c>
       <c r="Q22" t="n">
-        <v>7.502520604423731</v>
+        <v>7.502520604423631</v>
       </c>
       <c r="R22" t="n">
-        <v>4.028603507705978</v>
+        <v>4.028603507705924</v>
       </c>
       <c r="S22" t="n">
-        <v>1.561430029169502</v>
+        <v>1.561430029169481</v>
       </c>
       <c r="T22" t="n">
-        <v>0.3828232205058248</v>
+        <v>0.3828232205058197</v>
       </c>
       <c r="U22" t="n">
-        <v>0.004887104942627558</v>
+        <v>0.004887104942627492</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767362</v>
       </c>
       <c r="H23" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038877</v>
       </c>
       <c r="I23" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J23" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999194</v>
       </c>
       <c r="K23" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798419</v>
       </c>
       <c r="L23" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367563</v>
       </c>
       <c r="M23" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086073</v>
       </c>
       <c r="N23" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O23" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119403</v>
       </c>
       <c r="P23" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529583</v>
       </c>
       <c r="Q23" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089769</v>
       </c>
       <c r="R23" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733331</v>
       </c>
       <c r="S23" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657864</v>
       </c>
       <c r="T23" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677914</v>
       </c>
       <c r="U23" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013889</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713597</v>
       </c>
       <c r="H24" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447079</v>
       </c>
       <c r="I24" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938673</v>
       </c>
       <c r="J24" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886927</v>
       </c>
       <c r="K24" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085109</v>
       </c>
       <c r="L24" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287132</v>
       </c>
       <c r="M24" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995808</v>
       </c>
       <c r="N24" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259279</v>
       </c>
       <c r="O24" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425371</v>
       </c>
       <c r="P24" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948271</v>
       </c>
       <c r="Q24" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595812</v>
       </c>
       <c r="R24" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S24" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650031</v>
       </c>
       <c r="T24" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268331</v>
       </c>
       <c r="U24" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.0210772658204842</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162247</v>
       </c>
       <c r="H25" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566072</v>
       </c>
       <c r="I25" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673378</v>
       </c>
       <c r="J25" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K25" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064864</v>
       </c>
       <c r="L25" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927763</v>
       </c>
       <c r="M25" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089238</v>
       </c>
       <c r="N25" t="n">
-        <v>41.10177404257735</v>
+        <v>41.1017740425774</v>
       </c>
       <c r="O25" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322421</v>
       </c>
       <c r="P25" t="n">
-        <v>32.48488099937316</v>
+        <v>32.4848809993732</v>
       </c>
       <c r="Q25" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R25" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S25" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097296</v>
       </c>
       <c r="T25" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214778</v>
       </c>
       <c r="U25" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997591</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767362</v>
       </c>
       <c r="H26" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038877</v>
       </c>
       <c r="I26" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J26" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999194</v>
       </c>
       <c r="K26" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798419</v>
       </c>
       <c r="L26" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367563</v>
       </c>
       <c r="M26" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086073</v>
       </c>
       <c r="N26" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O26" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119403</v>
       </c>
       <c r="P26" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529583</v>
       </c>
       <c r="Q26" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089769</v>
       </c>
       <c r="R26" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733331</v>
       </c>
       <c r="S26" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657864</v>
       </c>
       <c r="T26" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677914</v>
       </c>
       <c r="U26" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013889</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713597</v>
       </c>
       <c r="H27" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447079</v>
       </c>
       <c r="I27" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938673</v>
       </c>
       <c r="J27" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886927</v>
       </c>
       <c r="K27" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085109</v>
       </c>
       <c r="L27" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287132</v>
       </c>
       <c r="M27" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995808</v>
       </c>
       <c r="N27" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259279</v>
       </c>
       <c r="O27" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425371</v>
       </c>
       <c r="P27" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948271</v>
       </c>
       <c r="Q27" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595812</v>
       </c>
       <c r="R27" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S27" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650031</v>
       </c>
       <c r="T27" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268331</v>
       </c>
       <c r="U27" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.0210772658204842</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162247</v>
       </c>
       <c r="H28" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566072</v>
       </c>
       <c r="I28" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673378</v>
       </c>
       <c r="J28" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K28" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064864</v>
       </c>
       <c r="L28" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927763</v>
       </c>
       <c r="M28" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089238</v>
       </c>
       <c r="N28" t="n">
-        <v>41.10177404257735</v>
+        <v>41.1017740425774</v>
       </c>
       <c r="O28" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322421</v>
       </c>
       <c r="P28" t="n">
-        <v>32.48488099937316</v>
+        <v>32.4848809993732</v>
       </c>
       <c r="Q28" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R28" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S28" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097296</v>
       </c>
       <c r="T28" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214778</v>
       </c>
       <c r="U28" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997591</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767362</v>
       </c>
       <c r="H29" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038877</v>
       </c>
       <c r="I29" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144039</v>
       </c>
       <c r="J29" t="n">
-        <v>50.82052891999188</v>
+        <v>50.82052891999194</v>
       </c>
       <c r="K29" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798419</v>
       </c>
       <c r="L29" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367563</v>
       </c>
       <c r="M29" t="n">
-        <v>105.1401664086072</v>
+        <v>105.1401664086073</v>
       </c>
       <c r="N29" t="n">
-        <v>106.8414442217582</v>
+        <v>106.8414442217583</v>
       </c>
       <c r="O29" t="n">
-        <v>100.8873461119402</v>
+        <v>100.8873461119403</v>
       </c>
       <c r="P29" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529583</v>
       </c>
       <c r="Q29" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089769</v>
       </c>
       <c r="R29" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733331</v>
       </c>
       <c r="S29" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657864</v>
       </c>
       <c r="T29" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677914</v>
       </c>
       <c r="U29" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013889</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713597</v>
       </c>
       <c r="H30" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447079</v>
       </c>
       <c r="I30" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938673</v>
       </c>
       <c r="J30" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886927</v>
       </c>
       <c r="K30" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085109</v>
       </c>
       <c r="L30" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287132</v>
       </c>
       <c r="M30" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995808</v>
       </c>
       <c r="N30" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259279</v>
       </c>
       <c r="O30" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425371</v>
       </c>
       <c r="P30" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948271</v>
       </c>
       <c r="Q30" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595812</v>
       </c>
       <c r="R30" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031828</v>
       </c>
       <c r="S30" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650031</v>
       </c>
       <c r="T30" t="n">
-        <v>1.291333819268329</v>
+        <v>1.291333819268331</v>
       </c>
       <c r="U30" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.0210772658204842</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162247</v>
       </c>
       <c r="H31" t="n">
-        <v>2.388019664566069</v>
+        <v>2.388019664566072</v>
       </c>
       <c r="I31" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673378</v>
       </c>
       <c r="J31" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530708</v>
       </c>
       <c r="K31" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064864</v>
       </c>
       <c r="L31" t="n">
-        <v>39.93218158927758</v>
+        <v>39.93218158927763</v>
       </c>
       <c r="M31" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089238</v>
       </c>
       <c r="N31" t="n">
-        <v>41.10177404257735</v>
+        <v>41.1017740425774</v>
       </c>
       <c r="O31" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322421</v>
       </c>
       <c r="P31" t="n">
-        <v>32.48488099937316</v>
+        <v>32.4848809993732</v>
       </c>
       <c r="Q31" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151132</v>
       </c>
       <c r="R31" t="n">
-        <v>12.07683564513678</v>
+        <v>12.07683564513679</v>
       </c>
       <c r="S31" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097296</v>
       </c>
       <c r="T31" t="n">
-        <v>1.147616812214777</v>
+        <v>1.147616812214778</v>
       </c>
       <c r="U31" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.01465042738997591</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -34359,22 +34359,22 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.5987779368767355</v>
+        <v>0.5987779368767358</v>
       </c>
       <c r="H44" t="n">
-        <v>6.13223454603887</v>
+        <v>6.132234546038871</v>
       </c>
       <c r="I44" t="n">
-        <v>23.08438641144037</v>
+        <v>23.08438641144038</v>
       </c>
       <c r="J44" t="n">
-        <v>50.82052891999188</v>
+        <v>50.8205289199919</v>
       </c>
       <c r="K44" t="n">
-        <v>76.16679898798411</v>
+        <v>76.16679898798414</v>
       </c>
       <c r="L44" t="n">
-        <v>94.49164927367552</v>
+        <v>94.49164927367556</v>
       </c>
       <c r="M44" t="n">
         <v>105.1401664086072</v>
@@ -34386,22 +34386,22 @@
         <v>100.8873461119402</v>
       </c>
       <c r="P44" t="n">
-        <v>86.10501579529573</v>
+        <v>86.10501579529577</v>
       </c>
       <c r="Q44" t="n">
-        <v>64.66128093089762</v>
+        <v>64.66128093089765</v>
       </c>
       <c r="R44" t="n">
-        <v>37.61298457733327</v>
+        <v>37.61298457733329</v>
       </c>
       <c r="S44" t="n">
-        <v>13.64465223657862</v>
+        <v>13.64465223657863</v>
       </c>
       <c r="T44" t="n">
-        <v>2.621150418677911</v>
+        <v>2.621150418677912</v>
       </c>
       <c r="U44" t="n">
-        <v>0.04790223495013883</v>
+        <v>0.04790223495013885</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3203744404713593</v>
+        <v>0.3203744404713594</v>
       </c>
       <c r="H45" t="n">
-        <v>3.094142622447075</v>
+        <v>3.094142622447077</v>
       </c>
       <c r="I45" t="n">
-        <v>11.03043577938671</v>
+        <v>11.03043577938672</v>
       </c>
       <c r="J45" t="n">
-        <v>30.26835886926996</v>
+        <v>30.26835886926997</v>
       </c>
       <c r="K45" t="n">
-        <v>51.73344638085103</v>
+        <v>51.73344638085105</v>
       </c>
       <c r="L45" t="n">
-        <v>69.56200296287123</v>
+        <v>69.56200296287126</v>
       </c>
       <c r="M45" t="n">
-        <v>81.175576429958</v>
+        <v>81.17557642995803</v>
       </c>
       <c r="N45" t="n">
-        <v>83.32405239259269</v>
+        <v>83.32405239259272</v>
       </c>
       <c r="O45" t="n">
-        <v>76.22522926425363</v>
+        <v>76.22522926425366</v>
       </c>
       <c r="P45" t="n">
-        <v>61.17746661948264</v>
+        <v>61.17746661948266</v>
       </c>
       <c r="Q45" t="n">
-        <v>40.89551629595807</v>
+        <v>40.89551629595809</v>
       </c>
       <c r="R45" t="n">
-        <v>19.89131833031826</v>
+        <v>19.89131833031827</v>
       </c>
       <c r="S45" t="n">
-        <v>5.950814716650025</v>
+        <v>5.950814716650027</v>
       </c>
       <c r="T45" t="n">
-        <v>1.291333819268329</v>
+        <v>1.29133381926833</v>
       </c>
       <c r="U45" t="n">
-        <v>0.02107726582048417</v>
+        <v>0.02107726582048418</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2685911688162244</v>
+        <v>0.2685911688162245</v>
       </c>
       <c r="H46" t="n">
-        <v>2.388019664566069</v>
+        <v>2.38801966456607</v>
       </c>
       <c r="I46" t="n">
-        <v>8.077268967673369</v>
+        <v>8.077268967673371</v>
       </c>
       <c r="J46" t="n">
-        <v>18.98939563530706</v>
+        <v>18.98939563530707</v>
       </c>
       <c r="K46" t="n">
-        <v>31.20541034064861</v>
+        <v>31.20541034064862</v>
       </c>
       <c r="L46" t="n">
-        <v>39.93218158927758</v>
+        <v>39.9321815892776</v>
       </c>
       <c r="M46" t="n">
-        <v>42.10288658089233</v>
+        <v>42.10288658089235</v>
       </c>
       <c r="N46" t="n">
-        <v>41.10177404257735</v>
+        <v>41.10177404257736</v>
       </c>
       <c r="O46" t="n">
-        <v>37.96414084322416</v>
+        <v>37.96414084322418</v>
       </c>
       <c r="P46" t="n">
-        <v>32.48488099937316</v>
+        <v>32.48488099937317</v>
       </c>
       <c r="Q46" t="n">
-        <v>22.4908477815113</v>
+        <v>22.49084778151131</v>
       </c>
       <c r="R46" t="n">
         <v>12.07683564513678</v>
       </c>
       <c r="S46" t="n">
-        <v>4.680811551097291</v>
+        <v>4.680811551097293</v>
       </c>
       <c r="T46" t="n">
         <v>1.147616812214777</v>
       </c>
       <c r="U46" t="n">
-        <v>0.01465042738997589</v>
+        <v>0.0146504273899759</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
         <v>322.9688344062893</v>
@@ -34789,7 +34789,7 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>362.1450102553808</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O3" t="n">
         <v>521.7376591828091</v>
@@ -35014,19 +35014,19 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>113.782083667694</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>634.1127774006881</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N6" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>521.7376591828091</v>
@@ -35035,7 +35035,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
@@ -35260,16 +35260,16 @@
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N9" t="n">
-        <v>598.8774259673916</v>
+        <v>260.2256450279866</v>
       </c>
       <c r="O9" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35488,19 +35488,19 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
-        <v>22.71185353989332</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>521.7376591828091</v>
@@ -35725,16 +35725,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>35.05004611020361</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35743,10 +35743,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>163.0636470933148</v>
+        <v>163.0636470933145</v>
       </c>
       <c r="K17" t="n">
-        <v>388.0162411661792</v>
+        <v>388.0162411661788</v>
       </c>
       <c r="L17" t="n">
-        <v>529.8239484906603</v>
+        <v>529.8239484906599</v>
       </c>
       <c r="M17" t="n">
-        <v>586.5888276937624</v>
+        <v>586.5888276937618</v>
       </c>
       <c r="N17" t="n">
-        <v>568.7829918257814</v>
+        <v>568.7829918257809</v>
       </c>
       <c r="O17" t="n">
-        <v>478.1385521310664</v>
+        <v>478.1385521310658</v>
       </c>
       <c r="P17" t="n">
-        <v>380.4275390325457</v>
+        <v>380.4275390325453</v>
       </c>
       <c r="Q17" t="n">
-        <v>208.2824649583044</v>
+        <v>208.282464958304</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>124.3545087123545</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>340.2261317381064</v>
       </c>
       <c r="L18" t="n">
-        <v>429.0408279718535</v>
+        <v>511.655157761873</v>
       </c>
       <c r="M18" t="n">
-        <v>661.1914113702969</v>
+        <v>661.1914113702965</v>
       </c>
       <c r="N18" t="n">
-        <v>690.1973159575712</v>
+        <v>9.666714141799458</v>
       </c>
       <c r="O18" t="n">
-        <v>547.1649511500823</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>430.126197772382</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>250.3743849529918</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,25 +36044,25 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>93.07119121460669</v>
+        <v>93.07119121460651</v>
       </c>
       <c r="L19" t="n">
-        <v>179.1061138606418</v>
+        <v>179.1061138606416</v>
       </c>
       <c r="M19" t="n">
-        <v>202.2180365404131</v>
+        <v>202.2180365404129</v>
       </c>
       <c r="N19" t="n">
-        <v>198.7508072915004</v>
+        <v>198.7508072915002</v>
       </c>
       <c r="O19" t="n">
-        <v>177.0123674784078</v>
+        <v>177.0123674784076</v>
       </c>
       <c r="P19" t="n">
-        <v>131.9233768307443</v>
+        <v>131.9233768307442</v>
       </c>
       <c r="Q19" t="n">
-        <v>10.95928461457623</v>
+        <v>10.95928461457611</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>163.0636470933148</v>
+        <v>163.0636470933145</v>
       </c>
       <c r="K20" t="n">
-        <v>388.0162411661792</v>
+        <v>388.0162411661788</v>
       </c>
       <c r="L20" t="n">
-        <v>529.8239484906603</v>
+        <v>529.8239484906599</v>
       </c>
       <c r="M20" t="n">
-        <v>586.5888276937623</v>
+        <v>586.5888276937618</v>
       </c>
       <c r="N20" t="n">
-        <v>568.7829918257814</v>
+        <v>568.7829918257809</v>
       </c>
       <c r="O20" t="n">
-        <v>478.1385521310663</v>
+        <v>478.1385521310659</v>
       </c>
       <c r="P20" t="n">
-        <v>380.4275390325457</v>
+        <v>380.4275390325453</v>
       </c>
       <c r="Q20" t="n">
-        <v>208.2824649583043</v>
+        <v>208.282464958304</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>124.3545087123547</v>
+        <v>124.3545087123545</v>
       </c>
       <c r="K21" t="n">
-        <v>340.2261317381067</v>
+        <v>340.2261317381065</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>511.655157761873</v>
       </c>
       <c r="M21" t="n">
-        <v>661.1914113702969</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>123.693174362014</v>
       </c>
       <c r="O21" t="n">
-        <v>521.3218719036707</v>
+        <v>547.1649511500819</v>
       </c>
       <c r="P21" t="n">
-        <v>430.1261977723823</v>
+        <v>430.1261977723821</v>
       </c>
       <c r="Q21" t="n">
-        <v>250.374384952992</v>
+        <v>250.3743849529918</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,25 +36281,25 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>93.07119121460666</v>
+        <v>93.07119121460651</v>
       </c>
       <c r="L22" t="n">
-        <v>179.1061138606418</v>
+        <v>179.1061138606416</v>
       </c>
       <c r="M22" t="n">
-        <v>202.2180365404131</v>
+        <v>202.2180365404129</v>
       </c>
       <c r="N22" t="n">
-        <v>198.7508072915004</v>
+        <v>198.7508072915002</v>
       </c>
       <c r="O22" t="n">
-        <v>177.0123674784077</v>
+        <v>177.0123674784076</v>
       </c>
       <c r="P22" t="n">
-        <v>131.9233768307443</v>
+        <v>131.9233768307442</v>
       </c>
       <c r="Q22" t="n">
-        <v>10.95928461457621</v>
+        <v>10.95928461457611</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36360,25 +36360,25 @@
         <v>196.9314106460809</v>
       </c>
       <c r="K23" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L23" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M23" t="n">
         <v>656.6562270596987</v>
       </c>
       <c r="N23" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666695</v>
       </c>
       <c r="O23" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577265</v>
       </c>
       <c r="P23" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q23" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36436,28 +36436,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L24" t="n">
-        <v>240.3316445737182</v>
+        <v>433.5938915781805</v>
       </c>
       <c r="M24" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>277.6279320079688</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36527,16 +36527,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N25" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O25" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803031</v>
       </c>
       <c r="P25" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q25" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166381</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36597,25 +36597,25 @@
         <v>196.9314106460809</v>
       </c>
       <c r="K26" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L26" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M26" t="n">
         <v>656.6562270596987</v>
       </c>
       <c r="N26" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666695</v>
       </c>
       <c r="O26" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577265</v>
       </c>
       <c r="P26" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L27" t="n">
-        <v>484.723977525895</v>
+        <v>433.5938915781805</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P27" t="n">
-        <v>470.8960208784699</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>277.6279320079688</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36764,16 +36764,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N28" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O28" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803031</v>
       </c>
       <c r="P28" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q28" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166381</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,25 +36834,25 @@
         <v>196.9314106460809</v>
       </c>
       <c r="K29" t="n">
-        <v>438.7752394197637</v>
+        <v>438.7752394197638</v>
       </c>
       <c r="L29" t="n">
-        <v>592.7949742418865</v>
+        <v>592.7949742418866</v>
       </c>
       <c r="M29" t="n">
         <v>656.6562270596987</v>
       </c>
       <c r="N29" t="n">
-        <v>639.9841549666694</v>
+        <v>639.9841549666695</v>
       </c>
       <c r="O29" t="n">
-        <v>545.3717914577264</v>
+        <v>545.3717914577265</v>
       </c>
       <c r="P29" t="n">
         <v>437.8095533018835</v>
       </c>
       <c r="Q29" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L30" t="n">
-        <v>240.3316445737182</v>
+        <v>433.5938915781805</v>
       </c>
       <c r="M30" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>597.9628884470627</v>
+        <v>597.9628884470628</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>470.89602087847</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>277.6279320079688</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37001,16 +37001,16 @@
         <v>230.2761980336843</v>
       </c>
       <c r="N31" t="n">
-        <v>226.1418084175361</v>
+        <v>226.1418084175362</v>
       </c>
       <c r="O31" t="n">
-        <v>202.312390380303</v>
+        <v>202.3123903803031</v>
       </c>
       <c r="P31" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q31" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166381</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37147,16 +37147,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L33" t="n">
         <v>558.0125947793492</v>
       </c>
       <c r="M33" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>745.7260435143695</v>
@@ -37165,10 +37165,10 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>280.2819382414318</v>
+        <v>198.7141626099945</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37387,25 +37387,25 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M36" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>745.7260435143695</v>
+        <v>20.10721346580581</v>
       </c>
       <c r="O36" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P36" t="n">
-        <v>240.3316445737181</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>277.6279320079687</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>144.5259166669744</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>374.7022807871404</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M39" t="n">
-        <v>715.2883538306461</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>745.7260435143695</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>597.9628884470627</v>
       </c>
       <c r="P39" t="n">
-        <v>240.3316445737181</v>
+        <v>470.8960208784699</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>153.2092288067999</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,10 +37861,10 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>280.2819382414317</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>558.0125947793492</v>
       </c>
       <c r="M42" t="n">
         <v>715.2883538306461</v>
@@ -37873,10 +37873,10 @@
         <v>745.7260435143695</v>
       </c>
       <c r="O42" t="n">
-        <v>597.9628884470627</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>240.3316445737185</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38037,7 +38037,7 @@
         <v>437.8095533018835</v>
       </c>
       <c r="Q44" t="n">
-        <v>251.3739679419567</v>
+        <v>251.3739679419568</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38101,13 +38101,13 @@
         <v>374.7022807871404</v>
       </c>
       <c r="L45" t="n">
-        <v>558.0125947793492</v>
+        <v>558.0125947793493</v>
       </c>
       <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="n">
         <v>473.5441852458941</v>
-      </c>
-      <c r="N45" t="n">
-        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>0</v>
@@ -38192,10 +38192,10 @@
         <v>202.312390380303</v>
       </c>
       <c r="P46" t="n">
-        <v>153.5719171373313</v>
+        <v>153.5719171373314</v>
       </c>
       <c r="Q46" t="n">
-        <v>25.94761179166378</v>
+        <v>25.94761179166379</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
